--- a/evaluation_results2.xlsx
+++ b/evaluation_results2.xlsx
@@ -8,31 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muham\OneDrive\Documents\Kuliah\TA\quantum-annealing-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C599CC86-20C6-42BC-B4BC-5FF58DA9D638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7027368A-C8D5-4B7B-A638-C632CAEE3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluation Metrics" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Data Only" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="32">
   <si>
     <t>Dataset_Name</t>
   </si>
@@ -109,16 +97,25 @@
     <t>dataset_4.csv</t>
   </si>
   <si>
+    <t>dataset_7a.csv</t>
+  </si>
+  <si>
+    <t>dataset_7b.csv</t>
+  </si>
+  <si>
+    <t>dataset_7c.csv</t>
+  </si>
+  <si>
+    <t>dataset_8.csv</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>dataset_5.csv</t>
   </si>
   <si>
     <t>dataset_6.csv</t>
-  </si>
-  <si>
-    <t>dataset_7.csv</t>
-  </si>
-  <si>
-    <t>dataset_8.csv</t>
   </si>
 </sst>
 </file>
@@ -481,23 +478,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N139" sqref="A1:N139"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.21875" customWidth="1"/>
-    <col min="14" max="14" width="14.77734375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3185,19 +3170,19 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
@@ -3206,42 +3191,42 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>2.2335060294730549E-2</v>
+        <v>2.57339783756271E-2</v>
       </c>
       <c r="I62">
-        <v>0.1073560658806513</v>
+        <v>0.12386374095914179</v>
       </c>
       <c r="J62">
-        <v>0.45158155925618643</v>
+        <v>0.4234260400810832</v>
       </c>
       <c r="K62">
-        <v>6.6466090679168701</v>
+        <v>0.27085161209106451</v>
       </c>
       <c r="L62">
-        <v>63.275063514709473</v>
+        <v>0.39788246154785162</v>
       </c>
       <c r="M62">
-        <v>0.1716272830963135</v>
+        <v>1.30000114440918E-2</v>
       </c>
       <c r="N62">
-        <v>70.093299865722656</v>
+        <v>0.68173408508300781</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -3250,42 +3235,42 @@
         <v>17</v>
       </c>
       <c r="H63">
-        <v>2.7936358419948241E-2</v>
+        <v>2.6404304318623489E-2</v>
       </c>
       <c r="I63">
-        <v>0.1203519717750897</v>
+        <v>0.12754210830079149</v>
       </c>
       <c r="J63">
-        <v>0.32930025628074799</v>
+        <v>0.26863395941093149</v>
       </c>
       <c r="K63">
-        <v>6.6466090679168701</v>
+        <v>0.27085161209106451</v>
       </c>
       <c r="L63">
-        <v>63.275063514709473</v>
+        <v>0.39788246154785162</v>
       </c>
       <c r="M63">
-        <v>0.1716272830963135</v>
+        <v>1.30000114440918E-2</v>
       </c>
       <c r="N63">
-        <v>70.093299865722656</v>
+        <v>0.68173408508300781</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
@@ -3294,42 +3279,42 @@
         <v>16</v>
       </c>
       <c r="H64">
-        <v>5.9948535703137212E-3</v>
+        <v>5.1887743752392929E-3</v>
       </c>
       <c r="I64">
-        <v>5.7341150150323601E-2</v>
+        <v>5.3066030429579351E-2</v>
       </c>
       <c r="J64">
-        <v>0.85280146083623554</v>
+        <v>0.88374466843063015</v>
       </c>
       <c r="K64">
-        <v>22.27582311630249</v>
+        <v>0.16281628608703611</v>
       </c>
       <c r="L64">
-        <v>32.046923398971558</v>
+        <v>5.9143364429473877</v>
       </c>
       <c r="M64">
-        <v>2.99835205078125E-3</v>
+        <v>9.9945068359375E-4</v>
       </c>
       <c r="N64">
-        <v>54.325744867324829</v>
+        <v>6.0781521797180176</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
@@ -3338,42 +3323,42 @@
         <v>17</v>
       </c>
       <c r="H65">
-        <v>1.8151207882010859E-2</v>
+        <v>6.3256935996206763E-3</v>
       </c>
       <c r="I65">
-        <v>8.6165626540149365E-2</v>
+        <v>6.1267527127696793E-2</v>
       </c>
       <c r="J65">
-        <v>0.56422342913646994</v>
+        <v>0.82478623840617171</v>
       </c>
       <c r="K65">
-        <v>22.27582311630249</v>
+        <v>0.16281628608703611</v>
       </c>
       <c r="L65">
-        <v>32.046923398971558</v>
+        <v>5.9143364429473877</v>
       </c>
       <c r="M65">
-        <v>2.99835205078125E-3</v>
+        <v>9.9945068359375E-4</v>
       </c>
       <c r="N65">
-        <v>54.325744867324829</v>
+        <v>6.0781521797180176</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C66">
         <v>3</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
         <v>19</v>
@@ -3382,42 +3367,42 @@
         <v>16</v>
       </c>
       <c r="H66">
-        <v>2.3045137393076651E-27</v>
+        <v>4.5242371828548298E-3</v>
       </c>
       <c r="I66">
-        <v>3.7740957845694689E-14</v>
+        <v>4.8873148152416633E-2</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0.8986337320232769</v>
       </c>
       <c r="K66" t="s">
         <v>20</v>
       </c>
       <c r="L66">
-        <v>5.6204557418823242E-2</v>
+        <v>4.4331550598144531E-3</v>
       </c>
       <c r="M66" t="s">
         <v>20</v>
       </c>
       <c r="N66">
-        <v>5.6204557418823242E-2</v>
+        <v>4.4331550598144531E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C67">
         <v>3</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67">
-        <v>560</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
         <v>19</v>
@@ -3426,25 +3411,25 @@
         <v>17</v>
       </c>
       <c r="H67">
-        <v>1.535875197531356</v>
+        <v>5.0622160494611882E-3</v>
       </c>
       <c r="I67">
-        <v>0.60353626133165039</v>
+        <v>5.2445378522214911E-2</v>
       </c>
       <c r="J67">
-        <v>-35.873492453242378</v>
+        <v>0.85978297841047313</v>
       </c>
       <c r="K67" t="s">
         <v>20</v>
       </c>
       <c r="L67">
-        <v>5.6204557418823242E-2</v>
+        <v>4.4331550598144531E-3</v>
       </c>
       <c r="M67" t="s">
         <v>20</v>
       </c>
       <c r="N67">
-        <v>5.6204557418823242E-2</v>
+        <v>4.4331550598144531E-3</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
@@ -3458,10 +3443,10 @@
         <v>3</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F68" t="s">
         <v>15</v>
@@ -3470,25 +3455,25 @@
         <v>16</v>
       </c>
       <c r="H68">
-        <v>2.57339783756271E-2</v>
+        <v>1.451260622650846E-2</v>
       </c>
       <c r="I68">
-        <v>0.12386374095914179</v>
+        <v>8.7389470955777288E-2</v>
       </c>
       <c r="J68">
-        <v>0.4234260400810832</v>
+        <v>0.67484270334636887</v>
       </c>
       <c r="K68">
-        <v>0.27085161209106451</v>
+        <v>0.27135944366455078</v>
       </c>
       <c r="L68">
-        <v>0.39788246154785162</v>
+        <v>4.1999638080596924</v>
       </c>
       <c r="M68">
-        <v>1.30000114440918E-2</v>
+        <v>3.8081884384155273E-2</v>
       </c>
       <c r="N68">
-        <v>0.68173408508300781</v>
+        <v>4.5094051361083984</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
@@ -3502,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
         <v>15</v>
@@ -3514,25 +3499,25 @@
         <v>17</v>
       </c>
       <c r="H69">
-        <v>2.6404304318623489E-2</v>
+        <v>1.5349771756532909E-2</v>
       </c>
       <c r="I69">
-        <v>0.12754210830079149</v>
+        <v>9.4588560835080493E-2</v>
       </c>
       <c r="J69">
-        <v>0.26863395941093149</v>
+        <v>0.57483061632480692</v>
       </c>
       <c r="K69">
-        <v>0.27085161209106451</v>
+        <v>0.27135944366455078</v>
       </c>
       <c r="L69">
-        <v>0.39788246154785162</v>
+        <v>4.1999638080596924</v>
       </c>
       <c r="M69">
-        <v>1.30000114440918E-2</v>
+        <v>3.8081884384155273E-2</v>
       </c>
       <c r="N69">
-        <v>0.68173408508300781</v>
+        <v>4.5094051361083984</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
@@ -3546,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E70">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
         <v>18</v>
@@ -3558,25 +3543,25 @@
         <v>16</v>
       </c>
       <c r="H70">
-        <v>5.1887743752392929E-3</v>
+        <v>4.4302791159846833E-3</v>
       </c>
       <c r="I70">
-        <v>5.3066030429579351E-2</v>
+        <v>4.9749056901069642E-2</v>
       </c>
       <c r="J70">
-        <v>0.88374466843063015</v>
+        <v>0.90073887775282158</v>
       </c>
       <c r="K70">
-        <v>0.16281628608703611</v>
+        <v>1.0366218090057371</v>
       </c>
       <c r="L70">
-        <v>5.9143364429473877</v>
+        <v>8.0872843265533447</v>
       </c>
       <c r="M70">
-        <v>9.9945068359375E-4</v>
+        <v>9.9968910217285156E-4</v>
       </c>
       <c r="N70">
-        <v>6.0781521797180176</v>
+        <v>9.1249058246612549</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
@@ -3590,10 +3575,10 @@
         <v>3</v>
       </c>
       <c r="D71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E71">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
         <v>18</v>
@@ -3602,25 +3587,25 @@
         <v>17</v>
       </c>
       <c r="H71">
-        <v>6.3256935996206763E-3</v>
+        <v>4.8585072891085233E-3</v>
       </c>
       <c r="I71">
-        <v>6.1267527127696793E-2</v>
+        <v>5.4246236781420668E-2</v>
       </c>
       <c r="J71">
-        <v>0.82478623840617171</v>
+        <v>0.8654254550193855</v>
       </c>
       <c r="K71">
-        <v>0.16281628608703611</v>
+        <v>1.0366218090057371</v>
       </c>
       <c r="L71">
-        <v>5.9143364429473877</v>
+        <v>8.0872843265533447</v>
       </c>
       <c r="M71">
-        <v>9.9945068359375E-4</v>
+        <v>9.9968910217285156E-4</v>
       </c>
       <c r="N71">
-        <v>6.0781521797180176</v>
+        <v>9.1249058246612549</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -3634,10 +3619,10 @@
         <v>3</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
         <v>19</v>
@@ -3646,25 +3631,25 @@
         <v>16</v>
       </c>
       <c r="H72">
-        <v>4.5242371828548298E-3</v>
+        <v>2.4575787859144448E-3</v>
       </c>
       <c r="I72">
-        <v>4.8873148152416633E-2</v>
+        <v>3.565072087975802E-2</v>
       </c>
       <c r="J72">
-        <v>0.8986337320232769</v>
+        <v>0.94493754864776569</v>
       </c>
       <c r="K72" t="s">
         <v>20</v>
       </c>
       <c r="L72">
-        <v>4.4331550598144531E-3</v>
+        <v>2.519130706787109E-2</v>
       </c>
       <c r="M72" t="s">
         <v>20</v>
       </c>
       <c r="N72">
-        <v>4.4331550598144531E-3</v>
+        <v>2.519130706787109E-2</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
@@ -3678,10 +3663,10 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E73">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="F73" t="s">
         <v>19</v>
@@ -3690,25 +3675,25 @@
         <v>17</v>
       </c>
       <c r="H73">
-        <v>5.0622160494611882E-3</v>
+        <v>1.235318344359315E-2</v>
       </c>
       <c r="I73">
-        <v>5.2445378522214911E-2</v>
+        <v>7.9807648916876292E-2</v>
       </c>
       <c r="J73">
-        <v>0.85978297841047313</v>
+        <v>0.65783234601493346</v>
       </c>
       <c r="K73" t="s">
         <v>20</v>
       </c>
       <c r="L73">
-        <v>4.4331550598144531E-3</v>
+        <v>2.519130706787109E-2</v>
       </c>
       <c r="M73" t="s">
         <v>20</v>
       </c>
       <c r="N73">
-        <v>4.4331550598144531E-3</v>
+        <v>2.519130706787109E-2</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
@@ -3722,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F74" t="s">
         <v>15</v>
@@ -3734,25 +3719,25 @@
         <v>16</v>
       </c>
       <c r="H74">
-        <v>1.451260622650846E-2</v>
+        <v>1.9369073204419569E-2</v>
       </c>
       <c r="I74">
-        <v>8.7389470955777288E-2</v>
+        <v>0.1022874487137472</v>
       </c>
       <c r="J74">
-        <v>0.67484270334636887</v>
+        <v>0.56603277291906751</v>
       </c>
       <c r="K74">
-        <v>0.27135944366455078</v>
+        <v>2.2772855758666992</v>
       </c>
       <c r="L74">
-        <v>4.1999638080596924</v>
+        <v>37.186235427856452</v>
       </c>
       <c r="M74">
-        <v>3.8081884384155273E-2</v>
+        <v>0.10196948051452639</v>
       </c>
       <c r="N74">
-        <v>4.5094051361083984</v>
+        <v>39.565490484237671</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
@@ -3766,10 +3751,10 @@
         <v>3</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E75">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F75" t="s">
         <v>15</v>
@@ -3778,25 +3763,25 @@
         <v>17</v>
       </c>
       <c r="H75">
-        <v>1.5349771756532909E-2</v>
+        <v>2.2618770184834491E-2</v>
       </c>
       <c r="I75">
-        <v>9.4588560835080493E-2</v>
+        <v>0.1123727885773286</v>
       </c>
       <c r="J75">
-        <v>0.57483061632480692</v>
+        <v>0.37348849666875522</v>
       </c>
       <c r="K75">
-        <v>0.27135944366455078</v>
+        <v>2.2772855758666992</v>
       </c>
       <c r="L75">
-        <v>4.1999638080596924</v>
+        <v>37.186235427856452</v>
       </c>
       <c r="M75">
-        <v>3.8081884384155273E-2</v>
+        <v>0.10196948051452639</v>
       </c>
       <c r="N75">
-        <v>4.5094051361083984</v>
+        <v>39.565490484237671</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
@@ -3810,10 +3795,10 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E76">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -3822,25 +3807,25 @@
         <v>16</v>
       </c>
       <c r="H76">
-        <v>4.4302791159846833E-3</v>
+        <v>5.5151551838081387E-3</v>
       </c>
       <c r="I76">
-        <v>4.9749056901069642E-2</v>
+        <v>5.3833833256264438E-2</v>
       </c>
       <c r="J76">
-        <v>0.90073887775282158</v>
+        <v>0.87643205347109054</v>
       </c>
       <c r="K76">
-        <v>1.0366218090057371</v>
+        <v>7.7229697704315194</v>
       </c>
       <c r="L76">
-        <v>8.0872843265533447</v>
+        <v>10.932705402374269</v>
       </c>
       <c r="M76">
-        <v>9.9968910217285156E-4</v>
+        <v>9.975433349609375E-4</v>
       </c>
       <c r="N76">
-        <v>9.1249058246612549</v>
+        <v>18.656672716140751</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
@@ -3854,10 +3839,10 @@
         <v>3</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -3866,25 +3851,25 @@
         <v>17</v>
       </c>
       <c r="H77">
-        <v>4.8585072891085233E-3</v>
+        <v>8.776456679395998E-3</v>
       </c>
       <c r="I77">
-        <v>5.4246236781420668E-2</v>
+        <v>7.0993935749797787E-2</v>
       </c>
       <c r="J77">
-        <v>0.8654254550193855</v>
+        <v>0.75690318159664494</v>
       </c>
       <c r="K77">
-        <v>1.0366218090057371</v>
+        <v>7.7229697704315194</v>
       </c>
       <c r="L77">
-        <v>8.0872843265533447</v>
+        <v>10.932705402374269</v>
       </c>
       <c r="M77">
-        <v>9.9968910217285156E-4</v>
+        <v>9.975433349609375E-4</v>
       </c>
       <c r="N77">
-        <v>9.1249058246612549</v>
+        <v>18.656672716140751</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
@@ -3898,10 +3883,10 @@
         <v>3</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E78">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F78" t="s">
         <v>19</v>
@@ -3910,25 +3895,25 @@
         <v>16</v>
       </c>
       <c r="H78">
-        <v>2.4575787859144448E-3</v>
+        <v>2.764158725371613E-4</v>
       </c>
       <c r="I78">
-        <v>3.565072087975802E-2</v>
+        <v>1.0764719854292681E-2</v>
       </c>
       <c r="J78">
-        <v>0.94493754864776569</v>
+        <v>0.99380685753726528</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
       </c>
       <c r="L78">
-        <v>2.519130706787109E-2</v>
+        <v>2.9190301895141602E-2</v>
       </c>
       <c r="M78" t="s">
         <v>20</v>
       </c>
       <c r="N78">
-        <v>2.519130706787109E-2</v>
+        <v>2.9190301895141602E-2</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
@@ -3942,10 +3927,10 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E79">
-        <v>120</v>
+        <v>330</v>
       </c>
       <c r="F79" t="s">
         <v>19</v>
@@ -3954,42 +3939,42 @@
         <v>17</v>
       </c>
       <c r="H79">
-        <v>1.235318344359315E-2</v>
+        <v>21.762508090949261</v>
       </c>
       <c r="I79">
-        <v>7.9807648916876292E-2</v>
+        <v>1.6974250483231059</v>
       </c>
       <c r="J79">
-        <v>0.65783234601493346</v>
+        <v>0</v>
       </c>
       <c r="K79" t="s">
         <v>20</v>
       </c>
       <c r="L79">
-        <v>2.519130706787109E-2</v>
+        <v>2.9190301895141602E-2</v>
       </c>
       <c r="M79" t="s">
         <v>20</v>
       </c>
       <c r="N79">
-        <v>2.519130706787109E-2</v>
+        <v>2.9190301895141602E-2</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C80">
         <v>3</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>15</v>
@@ -3998,42 +3983,42 @@
         <v>16</v>
       </c>
       <c r="H80">
-        <v>1.9369073204419569E-2</v>
+        <v>3.3967600730420128E-2</v>
       </c>
       <c r="I80">
-        <v>0.1022874487137472</v>
+        <v>0.1190702639807751</v>
       </c>
       <c r="J80">
-        <v>0.56603277291906751</v>
+        <v>0.63271592436139601</v>
       </c>
       <c r="K80">
-        <v>2.2772855758666992</v>
+        <v>3.515934944152832E-2</v>
       </c>
       <c r="L80">
-        <v>37.186235427856452</v>
+        <v>1.1465311050415041E-2</v>
       </c>
       <c r="M80">
-        <v>0.10196948051452639</v>
+        <v>2.002716064453125E-3</v>
       </c>
       <c r="N80">
-        <v>39.565490484237671</v>
+        <v>4.8627376556396477E-2</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B81">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>15</v>
@@ -4042,42 +4027,42 @@
         <v>17</v>
       </c>
       <c r="H81">
-        <v>2.2618770184834491E-2</v>
+        <v>3.2136938321765292E-2</v>
       </c>
       <c r="I81">
-        <v>0.1123727885773286</v>
+        <v>0.11718168596815159</v>
       </c>
       <c r="J81">
-        <v>0.37348849666875522</v>
+        <v>0.64978706409414788</v>
       </c>
       <c r="K81">
-        <v>2.2772855758666992</v>
+        <v>3.515934944152832E-2</v>
       </c>
       <c r="L81">
-        <v>37.186235427856452</v>
+        <v>1.1465311050415041E-2</v>
       </c>
       <c r="M81">
-        <v>0.10196948051452639</v>
+        <v>2.002716064453125E-3</v>
       </c>
       <c r="N81">
-        <v>39.565490484237671</v>
+        <v>4.8627376556396477E-2</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B82">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C82">
         <v>3</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
@@ -4086,42 +4071,42 @@
         <v>16</v>
       </c>
       <c r="H82">
-        <v>5.5151551838081387E-3</v>
+        <v>2.878232328717362E-2</v>
       </c>
       <c r="I82">
-        <v>5.3833833256264438E-2</v>
+        <v>0.1429035936412375</v>
       </c>
       <c r="J82">
-        <v>0.87643205347109054</v>
+        <v>0.68878317055246807</v>
       </c>
       <c r="K82">
-        <v>7.7229697704315194</v>
+        <v>3.7186384201049798E-2</v>
       </c>
       <c r="L82">
-        <v>10.932705402374269</v>
+        <v>6.4322853088378906</v>
       </c>
       <c r="M82">
-        <v>9.975433349609375E-4</v>
+        <v>2.532958984375E-3</v>
       </c>
       <c r="N82">
-        <v>18.656672716140751</v>
+        <v>6.4720046520233154</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B83">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C83">
         <v>3</v>
       </c>
       <c r="D83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -4130,42 +4115,42 @@
         <v>17</v>
       </c>
       <c r="H83">
-        <v>8.776456679395998E-3</v>
+        <v>2.7938705737192839E-2</v>
       </c>
       <c r="I83">
-        <v>7.0993935749797787E-2</v>
+        <v>0.1419294123750767</v>
       </c>
       <c r="J83">
-        <v>0.75690318159664494</v>
+        <v>0.69553738866887449</v>
       </c>
       <c r="K83">
-        <v>7.7229697704315194</v>
+        <v>3.7186384201049798E-2</v>
       </c>
       <c r="L83">
-        <v>10.932705402374269</v>
+        <v>6.4322853088378906</v>
       </c>
       <c r="M83">
-        <v>9.975433349609375E-4</v>
+        <v>2.532958984375E-3</v>
       </c>
       <c r="N83">
-        <v>18.656672716140751</v>
+        <v>6.4720046520233154</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>19</v>
@@ -4174,42 +4159,42 @@
         <v>16</v>
       </c>
       <c r="H84">
-        <v>2.764158725371613E-4</v>
+        <v>2.0405086018154939E-2</v>
       </c>
       <c r="I84">
-        <v>1.0764719854292681E-2</v>
+        <v>7.9888395176143004E-2</v>
       </c>
       <c r="J84">
-        <v>0.99380685753726528</v>
+        <v>0.77936436500231021</v>
       </c>
       <c r="K84" t="s">
         <v>20</v>
       </c>
       <c r="L84">
-        <v>2.9190301895141602E-2</v>
+        <v>1.5847921371459961E-2</v>
       </c>
       <c r="M84" t="s">
         <v>20</v>
       </c>
       <c r="N84">
-        <v>2.9190301895141602E-2</v>
+        <v>1.5847921371459961E-2</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B85">
-        <v>392</v>
+        <v>71225</v>
       </c>
       <c r="C85">
         <v>3</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>19</v>
@@ -4218,42 +4203,42 @@
         <v>17</v>
       </c>
       <c r="H85">
-        <v>21.762508090949261</v>
+        <v>1.9112784428789689E-2</v>
       </c>
       <c r="I85">
-        <v>1.6974250483231059</v>
+        <v>7.8318808933908565E-2</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>0.79171804478932661</v>
       </c>
       <c r="K85" t="s">
         <v>20</v>
       </c>
       <c r="L85">
-        <v>2.9190301895141602E-2</v>
+        <v>1.5847921371459961E-2</v>
       </c>
       <c r="M85" t="s">
         <v>20</v>
       </c>
       <c r="N85">
-        <v>2.9190301895141602E-2</v>
+        <v>1.5847921371459961E-2</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B86">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C86">
         <v>3</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>
@@ -4262,42 +4247,42 @@
         <v>16</v>
       </c>
       <c r="H86">
-        <v>1.7133261121114129E-2</v>
+        <v>3.7198819193557248E-2</v>
       </c>
       <c r="I86">
-        <v>9.8998657714821525E-2</v>
+        <v>0.164221356112106</v>
       </c>
       <c r="J86">
-        <v>-6.6245624140949646</v>
+        <v>0.59777748123029584</v>
       </c>
       <c r="K86">
-        <v>0.84538722038269043</v>
+        <v>3.413081169128418E-2</v>
       </c>
       <c r="L86">
-        <v>9.1294748783111572</v>
+        <v>1.23744010925293E-2</v>
       </c>
       <c r="M86">
-        <v>5.3277730941772461E-2</v>
+        <v>1.999139785766602E-3</v>
       </c>
       <c r="N86">
-        <v>10.02813982963562</v>
+        <v>4.8504352569580078E-2</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B87">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -4306,42 +4291,42 @@
         <v>17</v>
       </c>
       <c r="H87">
-        <v>1.8366081766242201E-2</v>
+        <v>3.661103079855571E-2</v>
       </c>
       <c r="I87">
-        <v>0.10242575020945149</v>
+        <v>0.1637920924484666</v>
       </c>
       <c r="J87">
-        <v>-6.0633595396369948</v>
+        <v>0.60103055075977541</v>
       </c>
       <c r="K87">
-        <v>0.84538722038269043</v>
+        <v>3.413081169128418E-2</v>
       </c>
       <c r="L87">
-        <v>9.1294748783111572</v>
+        <v>1.23744010925293E-2</v>
       </c>
       <c r="M87">
-        <v>5.3277730941772461E-2</v>
+        <v>1.999139785766602E-3</v>
       </c>
       <c r="N87">
-        <v>10.02813982963562</v>
+        <v>4.8504352569580078E-2</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B88">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
@@ -4350,42 +4335,42 @@
         <v>16</v>
       </c>
       <c r="H88">
-        <v>3.095296136727578E-3</v>
+        <v>2.6366533795942081E-2</v>
       </c>
       <c r="I88">
-        <v>4.0425954959158329E-2</v>
+        <v>0.12929196951444949</v>
       </c>
       <c r="J88">
-        <v>-0.37745397199968589</v>
+        <v>0.71490456244194034</v>
       </c>
       <c r="K88">
-        <v>2.2782492637634282</v>
+        <v>3.5635232925415039E-2</v>
       </c>
       <c r="L88">
-        <v>7.2656514644622803</v>
+        <v>5.7792654037475586</v>
       </c>
       <c r="M88">
-        <v>9.9873542785644531E-4</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>9.5448994636535645</v>
+        <v>5.8149006366729736</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B89">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C89">
         <v>3</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -4394,42 +4379,42 @@
         <v>17</v>
       </c>
       <c r="H89">
-        <v>3.793595700408344E-3</v>
+        <v>2.5437615239549381E-2</v>
       </c>
       <c r="I89">
-        <v>4.2395528594818079E-2</v>
+        <v>0.12790047541023261</v>
       </c>
       <c r="J89">
-        <v>-0.45896826122470608</v>
+        <v>0.72279307299623685</v>
       </c>
       <c r="K89">
-        <v>2.2782492637634282</v>
+        <v>3.5635232925415039E-2</v>
       </c>
       <c r="L89">
-        <v>7.2656514644622803</v>
+        <v>5.7792654037475586</v>
       </c>
       <c r="M89">
-        <v>9.9873542785644531E-4</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>9.5448994636535645</v>
+        <v>5.8149006366729736</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B90">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>19</v>
@@ -4438,42 +4423,42 @@
         <v>16</v>
       </c>
       <c r="H90">
-        <v>4.0564144669102509E-4</v>
+        <v>1.9500697719830411E-2</v>
       </c>
       <c r="I90">
-        <v>1.311942370359402E-2</v>
+        <v>7.7987770155499236E-2</v>
       </c>
       <c r="J90">
-        <v>0.8194833717774811</v>
+        <v>0.78914331355992839</v>
       </c>
       <c r="K90" t="s">
         <v>20</v>
       </c>
       <c r="L90">
-        <v>0.1387135982513428</v>
+        <v>9.8361968994140625E-3</v>
       </c>
       <c r="M90" t="s">
         <v>20</v>
       </c>
       <c r="N90">
-        <v>0.1387135982513428</v>
+        <v>9.8361968994140625E-3</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B91">
-        <v>21613</v>
+        <v>71225</v>
       </c>
       <c r="C91">
         <v>3</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>19</v>
@@ -4482,42 +4467,42 @@
         <v>17</v>
       </c>
       <c r="H91">
-        <v>5.6854688457518997E-4</v>
+        <v>1.817591741170381E-2</v>
       </c>
       <c r="I91">
-        <v>1.408218517294816E-2</v>
+        <v>7.6155501481888335E-2</v>
       </c>
       <c r="J91">
-        <v>0.7813441586503006</v>
+        <v>0.80192757207291332</v>
       </c>
       <c r="K91" t="s">
         <v>20</v>
       </c>
       <c r="L91">
-        <v>0.1387135982513428</v>
+        <v>9.8361968994140625E-3</v>
       </c>
       <c r="M91" t="s">
         <v>20</v>
       </c>
       <c r="N91">
-        <v>0.1387135982513428</v>
+        <v>9.8361968994140625E-3</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B92">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F92" t="s">
         <v>15</v>
@@ -4526,42 +4511,42 @@
         <v>16</v>
       </c>
       <c r="H92">
-        <v>1.4762840362690869E-4</v>
+        <v>3.6449229571780532E-2</v>
       </c>
       <c r="I92">
-        <v>5.5125646161606366E-3</v>
+        <v>0.1504178207257611</v>
       </c>
       <c r="J92">
-        <v>0.7156895979197857</v>
+        <v>0.60588262629271972</v>
       </c>
       <c r="K92">
-        <v>0.87198042869567871</v>
+        <v>2.8726577758789059E-2</v>
       </c>
       <c r="L92">
-        <v>5.4152414798736572</v>
+        <v>1.66478157043457E-2</v>
       </c>
       <c r="M92">
-        <v>4.7803878784179688E-2</v>
+        <v>2.0003318786621089E-3</v>
       </c>
       <c r="N92">
-        <v>6.3350257873535156</v>
+        <v>4.7374725341796882E-2</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B93">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E93">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
         <v>15</v>
@@ -4570,42 +4555,42 @@
         <v>17</v>
       </c>
       <c r="H93">
-        <v>1.4841087988535709E-4</v>
+        <v>3.5482474082337442E-2</v>
       </c>
       <c r="I93">
-        <v>5.4649728574761173E-3</v>
+        <v>0.1495220398623496</v>
       </c>
       <c r="J93">
-        <v>0.72989421479584593</v>
+        <v>0.61332902042001025</v>
       </c>
       <c r="K93">
-        <v>0.87198042869567871</v>
+        <v>2.8726577758789059E-2</v>
       </c>
       <c r="L93">
-        <v>5.4152414798736572</v>
+        <v>1.66478157043457E-2</v>
       </c>
       <c r="M93">
-        <v>4.7803878784179688E-2</v>
+        <v>2.0003318786621089E-3</v>
       </c>
       <c r="N93">
-        <v>6.3350257873535156</v>
+        <v>4.7374725341796882E-2</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B94">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C94">
         <v>3</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E94">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -4614,42 +4599,42 @@
         <v>16</v>
       </c>
       <c r="H94">
-        <v>7.0490395410561616E-6</v>
+        <v>2.482818591393203E-2</v>
       </c>
       <c r="I94">
-        <v>1.0284857038996311E-3</v>
+        <v>0.11737282686005709</v>
       </c>
       <c r="J94">
-        <v>0.98642459569459362</v>
+        <v>0.73153837430103519</v>
       </c>
       <c r="K94">
-        <v>1.573449850082397</v>
+        <v>3.081607818603516E-2</v>
       </c>
       <c r="L94">
-        <v>7.7595410346984863</v>
+        <v>5.7436807155609131</v>
       </c>
       <c r="M94">
-        <v>1.000642776489258E-3</v>
+        <v>0</v>
       </c>
       <c r="N94">
-        <v>9.333991527557373</v>
+        <v>5.7744967937469482</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B95">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C95">
         <v>3</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F95" t="s">
         <v>18</v>
@@ -4658,42 +4643,42 @@
         <v>17</v>
       </c>
       <c r="H95">
-        <v>9.705566697161046E-6</v>
+        <v>2.3749447439220139E-2</v>
       </c>
       <c r="I95">
-        <v>1.040723311551508E-3</v>
+        <v>0.11541189530930809</v>
       </c>
       <c r="J95">
-        <v>0.98233600046295111</v>
+        <v>0.74118991577371485</v>
       </c>
       <c r="K95">
-        <v>1.573449850082397</v>
+        <v>3.081607818603516E-2</v>
       </c>
       <c r="L95">
-        <v>7.7595410346984863</v>
+        <v>5.7436807155609131</v>
       </c>
       <c r="M95">
-        <v>1.000642776489258E-3</v>
+        <v>0</v>
       </c>
       <c r="N95">
-        <v>9.333991527557373</v>
+        <v>5.7744967937469482</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B96">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C96">
         <v>3</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E96">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
         <v>19</v>
@@ -4702,42 +4687,42 @@
         <v>16</v>
       </c>
       <c r="H96">
-        <v>6.1637134145812443E-12</v>
+        <v>1.924149151965527E-2</v>
       </c>
       <c r="I96">
-        <v>4.3895275653597671E-7</v>
+        <v>7.6570604637386075E-2</v>
       </c>
       <c r="J96">
-        <v>0.99999998812960245</v>
+        <v>0.79194605227517312</v>
       </c>
       <c r="K96" t="s">
         <v>20</v>
       </c>
       <c r="L96">
-        <v>1.3463799953460689</v>
+        <v>9.7086429595947266E-3</v>
       </c>
       <c r="M96" t="s">
         <v>20</v>
       </c>
       <c r="N96">
-        <v>1.3463799953460689</v>
+        <v>9.7086429595947266E-3</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B97">
-        <v>171223</v>
+        <v>71225</v>
       </c>
       <c r="C97">
         <v>3</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E97">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>19</v>
@@ -4746,42 +4731,42 @@
         <v>17</v>
       </c>
       <c r="H97">
-        <v>4.4369558377059217E-12</v>
+        <v>1.7900900803015631E-2</v>
       </c>
       <c r="I97">
-        <v>4.518219797224225E-7</v>
+        <v>7.4784551235906757E-2</v>
       </c>
       <c r="J97">
-        <v>0.9999999919248006</v>
+        <v>0.80492457113322291</v>
       </c>
       <c r="K97" t="s">
         <v>20</v>
       </c>
       <c r="L97">
-        <v>1.3463799953460689</v>
+        <v>9.7086429595947266E-3</v>
       </c>
       <c r="M97" t="s">
         <v>20</v>
       </c>
       <c r="N97">
-        <v>1.3463799953460689</v>
+        <v>9.7086429595947266E-3</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B98">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C98">
         <v>3</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
         <v>15</v>
@@ -4790,42 +4775,42 @@
         <v>16</v>
       </c>
       <c r="H98">
-        <v>4.1327397543789182E-2</v>
+        <v>5.4886065926235378E-2</v>
       </c>
       <c r="I98">
-        <v>0.19353364058392941</v>
+        <v>0.18712920244226061</v>
       </c>
       <c r="J98">
-        <v>-78.590436013235404</v>
+        <v>-0.42105028795260951</v>
       </c>
       <c r="K98">
-        <v>11.36007237434387</v>
+        <v>3.2457351684570313E-2</v>
       </c>
       <c r="L98">
-        <v>179.65277719497681</v>
+        <v>4.4372320175170898E-2</v>
       </c>
       <c r="M98">
-        <v>0.27462935447692871</v>
+        <v>3.8540363311767578E-3</v>
       </c>
       <c r="N98">
-        <v>191.28747892379761</v>
+        <v>8.0683708190917969E-2</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C99">
         <v>3</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F99" t="s">
         <v>15</v>
@@ -4834,42 +4819,42 @@
         <v>17</v>
       </c>
       <c r="H99">
-        <v>4.4509647103635468E-2</v>
+        <v>5.4841465393914088E-2</v>
       </c>
       <c r="I99">
-        <v>0.19403023069347239</v>
+        <v>0.18687131670942489</v>
       </c>
       <c r="J99">
-        <v>-80.006953057445202</v>
+        <v>-0.42151978088273839</v>
       </c>
       <c r="K99">
-        <v>11.36007237434387</v>
+        <v>3.2457351684570313E-2</v>
       </c>
       <c r="L99">
-        <v>179.65277719497681</v>
+        <v>4.4372320175170898E-2</v>
       </c>
       <c r="M99">
-        <v>0.27462935447692871</v>
+        <v>3.8540363311767578E-3</v>
       </c>
       <c r="N99">
-        <v>191.28747892379761</v>
+        <v>8.0683708190917969E-2</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B100">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E100">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
@@ -4878,42 +4863,42 @@
         <v>16</v>
       </c>
       <c r="H100">
-        <v>2.4477989376405421E-5</v>
+        <v>3.6322256851034219E-2</v>
       </c>
       <c r="I100">
-        <v>2.0195649391606331E-3</v>
+        <v>0.14946729616352261</v>
       </c>
       <c r="J100">
-        <v>0.95285902420709689</v>
+        <v>5.9583654135090043E-2</v>
       </c>
       <c r="K100">
-        <v>38.466057538986213</v>
+        <v>3.8009166717529297E-2</v>
       </c>
       <c r="L100">
-        <v>26.940387010574341</v>
+        <v>5.6980133056640616</v>
       </c>
       <c r="M100">
-        <v>3.9985179901123047E-3</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>65.410443067550659</v>
+        <v>5.7360224723815918</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B101">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C101">
         <v>3</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
@@ -4922,42 +4907,42 @@
         <v>17</v>
       </c>
       <c r="H101">
-        <v>4.4519956129344608E-5</v>
+        <v>3.5874622140151483E-2</v>
       </c>
       <c r="I101">
-        <v>2.058081918501604E-3</v>
+        <v>0.14818253342014501</v>
       </c>
       <c r="J101">
-        <v>0.91897428465581399</v>
+        <v>7.0110825127980614E-2</v>
       </c>
       <c r="K101">
-        <v>38.466057538986213</v>
+        <v>3.8009166717529297E-2</v>
       </c>
       <c r="L101">
-        <v>26.940387010574341</v>
+        <v>5.6980133056640616</v>
       </c>
       <c r="M101">
-        <v>3.9985179901123047E-3</v>
+        <v>0</v>
       </c>
       <c r="N101">
-        <v>65.410443067550659</v>
+        <v>5.7360224723815918</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B102">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F102" t="s">
         <v>19</v>
@@ -4966,42 +4951,42 @@
         <v>16</v>
       </c>
       <c r="H102">
-        <v>2.7104728720886711E-12</v>
+        <v>3.6130679144666188E-2</v>
       </c>
       <c r="I102">
-        <v>4.256884610259187E-7</v>
+        <v>0.14813211621611541</v>
       </c>
       <c r="J102">
-        <v>0.99999999478003143</v>
+        <v>6.4543775619575028E-2</v>
       </c>
       <c r="K102" t="s">
         <v>20</v>
       </c>
       <c r="L102">
-        <v>5.6024143695831299</v>
+        <v>1.21915340423584E-2</v>
       </c>
       <c r="M102" t="s">
         <v>20</v>
       </c>
       <c r="N102">
-        <v>5.6024143695831299</v>
+        <v>1.21915340423584E-2</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B103">
-        <v>171223</v>
+        <v>36733</v>
       </c>
       <c r="C103">
         <v>3</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>680</v>
+        <v>10</v>
       </c>
       <c r="F103" t="s">
         <v>19</v>
@@ -5010,42 +4995,42 @@
         <v>17</v>
       </c>
       <c r="H103">
-        <v>1.6882783526677969E-11</v>
+        <v>3.5778492698584921E-2</v>
       </c>
       <c r="I103">
-        <v>5.4270081354172447E-7</v>
+        <v>0.1469102758371604</v>
       </c>
       <c r="J103">
-        <v>0.99999996927356338</v>
+        <v>7.2602551082612821E-2</v>
       </c>
       <c r="K103" t="s">
         <v>20</v>
       </c>
       <c r="L103">
-        <v>5.6024143695831299</v>
+        <v>1.21915340423584E-2</v>
       </c>
       <c r="M103" t="s">
         <v>20</v>
       </c>
       <c r="N103">
-        <v>5.6024143695831299</v>
+        <v>1.21915340423584E-2</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B104">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F104" t="s">
         <v>15</v>
@@ -5054,42 +5039,42 @@
         <v>16</v>
       </c>
       <c r="H104">
-        <v>2.4183708271347241E-2</v>
+        <v>4.6040065129784438E-2</v>
       </c>
       <c r="I104">
-        <v>0.12218088496327829</v>
+        <v>0.17048218288964159</v>
       </c>
       <c r="J104">
-        <v>4.6818773500555633E-2</v>
+        <v>-0.19201926219244639</v>
       </c>
       <c r="K104">
-        <v>0.62821125984191895</v>
+        <v>4.6152830123901367E-2</v>
       </c>
       <c r="L104">
-        <v>0.49680638313293463</v>
+        <v>0.14539551734924319</v>
       </c>
       <c r="M104">
-        <v>1.3886213302612299E-2</v>
+        <v>6.7462921142578116E-3</v>
       </c>
       <c r="N104">
-        <v>1.138903856277466</v>
+        <v>0.19829463958740229</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B105">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F105" t="s">
         <v>15</v>
@@ -5098,42 +5083,42 @@
         <v>17</v>
       </c>
       <c r="H105">
-        <v>2.4659057267660121E-2</v>
+        <v>4.6070701112824991E-2</v>
       </c>
       <c r="I105">
-        <v>0.1238953639459815</v>
+        <v>0.16917880418304601</v>
       </c>
       <c r="J105">
-        <v>4.1506511387550897E-2</v>
+        <v>-0.19417693310370179</v>
       </c>
       <c r="K105">
-        <v>0.62821125984191895</v>
+        <v>4.6152830123901367E-2</v>
       </c>
       <c r="L105">
-        <v>0.49680638313293463</v>
+        <v>0.14539551734924319</v>
       </c>
       <c r="M105">
-        <v>1.3886213302612299E-2</v>
+        <v>6.7462921142578116E-3</v>
       </c>
       <c r="N105">
-        <v>1.138903856277466</v>
+        <v>0.19829463958740229</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B106">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C106">
         <v>3</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E106">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -5142,42 +5127,42 @@
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.35311451876998851</v>
+        <v>3.5938053420726743E-2</v>
       </c>
       <c r="I106">
-        <v>0.50124461654815566</v>
+        <v>0.14846047073974461</v>
       </c>
       <c r="J106">
-        <v>-12.91772205980171</v>
+        <v>6.9531031234490781E-2</v>
       </c>
       <c r="K106">
-        <v>0.29935717582702642</v>
+        <v>7.5396299362182617E-2</v>
       </c>
       <c r="L106">
-        <v>5.7788798809051514</v>
+        <v>5.8629317283630371</v>
       </c>
       <c r="M106">
         <v>0</v>
       </c>
       <c r="N106">
-        <v>6.0782370567321777</v>
+        <v>5.9383280277252197</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B107">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C107">
         <v>3</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F107" t="s">
         <v>18</v>
@@ -5186,42 +5171,42 @@
         <v>17</v>
       </c>
       <c r="H107">
-        <v>0.35239582587368079</v>
+        <v>3.5793045096883573E-2</v>
       </c>
       <c r="I107">
-        <v>0.50030462591637215</v>
+        <v>0.1477796930559479</v>
       </c>
       <c r="J107">
-        <v>-12.697567625876241</v>
+        <v>7.2225345224012472E-2</v>
       </c>
       <c r="K107">
-        <v>0.29935717582702642</v>
+        <v>7.5396299362182617E-2</v>
       </c>
       <c r="L107">
-        <v>5.7788798809051514</v>
+        <v>5.8629317283630371</v>
       </c>
       <c r="M107">
         <v>0</v>
       </c>
       <c r="N107">
-        <v>6.0782370567321777</v>
+        <v>5.9383280277252197</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B108">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F108" t="s">
         <v>19</v>
@@ -5230,42 +5215,42 @@
         <v>16</v>
       </c>
       <c r="H108">
-        <v>9.0163183742800933E-5</v>
+        <v>3.5823675989168309E-2</v>
       </c>
       <c r="I108">
-        <v>6.9614638309058296E-3</v>
+        <v>0.14780456927773231</v>
       </c>
       <c r="J108">
-        <v>0.99644629131724682</v>
+        <v>7.249236721856045E-2</v>
       </c>
       <c r="K108" t="s">
         <v>20</v>
       </c>
       <c r="L108">
-        <v>6.8910837173461914E-2</v>
+        <v>1.479744911193848E-2</v>
       </c>
       <c r="M108" t="s">
         <v>20</v>
       </c>
       <c r="N108">
-        <v>6.8910837173461914E-2</v>
+        <v>1.479744911193848E-2</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B109">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F109" t="s">
         <v>19</v>
@@ -5274,42 +5259,42 @@
         <v>17</v>
       </c>
       <c r="H109">
-        <v>8.8347590594949369E-5</v>
+        <v>3.5718737525496452E-2</v>
       </c>
       <c r="I109">
-        <v>6.9316078551492927E-3</v>
+        <v>0.14717823382384199</v>
       </c>
       <c r="J109">
-        <v>0.99656594372604368</v>
+        <v>7.4151436765101497E-2</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
       </c>
       <c r="L109">
-        <v>6.8910837173461914E-2</v>
+        <v>1.479744911193848E-2</v>
       </c>
       <c r="M109" t="s">
         <v>20</v>
       </c>
       <c r="N109">
-        <v>6.8910837173461914E-2</v>
+        <v>1.479744911193848E-2</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B110">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C110">
         <v>3</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E110">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
         <v>15</v>
@@ -5318,42 +5303,42 @@
         <v>16</v>
       </c>
       <c r="H110">
-        <v>2.823692703807067E-2</v>
+        <v>4.1394429336965723E-2</v>
       </c>
       <c r="I110">
-        <v>0.1212402732302198</v>
+        <v>0.161274377635547</v>
       </c>
       <c r="J110">
-        <v>-0.11293555333745869</v>
+        <v>-7.1739515963587852E-2</v>
       </c>
       <c r="K110">
-        <v>0.48529624938964838</v>
+        <v>6.3122272491455078E-2</v>
       </c>
       <c r="L110">
-        <v>6.1829147338867188</v>
+        <v>0.41985917091369629</v>
       </c>
       <c r="M110">
-        <v>4.3962240219116211E-2</v>
+        <v>1.045942306518555E-2</v>
       </c>
       <c r="N110">
-        <v>6.7121732234954834</v>
+        <v>0.49344086647033691</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B111">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C111">
         <v>3</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
         <v>15</v>
@@ -5362,42 +5347,42 @@
         <v>17</v>
       </c>
       <c r="H111">
-        <v>2.749719225045465E-2</v>
+        <v>4.0969885135882157E-2</v>
       </c>
       <c r="I111">
-        <v>0.1206302684529197</v>
+        <v>0.1592190667112568</v>
       </c>
       <c r="J111">
-        <v>-6.8811327258268662E-2</v>
+        <v>-6.1961085883259097E-2</v>
       </c>
       <c r="K111">
-        <v>0.48529624938964838</v>
+        <v>6.3122272491455078E-2</v>
       </c>
       <c r="L111">
-        <v>6.1829147338867188</v>
+        <v>0.41985917091369629</v>
       </c>
       <c r="M111">
-        <v>4.3962240219116211E-2</v>
+        <v>1.045942306518555E-2</v>
       </c>
       <c r="N111">
-        <v>6.7121732234954834</v>
+        <v>0.49344086647033691</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B112">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
@@ -5406,42 +5391,42 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.31877036265004899</v>
+        <v>3.5827663891133878E-2</v>
       </c>
       <c r="I112">
-        <v>0.42543252813292398</v>
+        <v>0.14857332190542669</v>
       </c>
       <c r="J112">
-        <v>-11.564075030728089</v>
+        <v>7.2389116800792852E-2</v>
       </c>
       <c r="K112">
-        <v>1.1994044780731199</v>
+        <v>0.1402237415313721</v>
       </c>
       <c r="L112">
-        <v>6.0242640972137451</v>
+        <v>5.8258013725280762</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>7.2236685752868652</v>
+        <v>5.9660251140594482</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B113">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C113">
         <v>3</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E113">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
@@ -5450,42 +5435,42 @@
         <v>17</v>
       </c>
       <c r="H113">
-        <v>0.32228139657812571</v>
+        <v>3.5734072944443557E-2</v>
       </c>
       <c r="I113">
-        <v>0.42700342360236682</v>
+        <v>0.14797772304397699</v>
       </c>
       <c r="J113">
-        <v>-11.527024726374369</v>
+        <v>7.3753934597264648E-2</v>
       </c>
       <c r="K113">
-        <v>1.1994044780731199</v>
+        <v>0.1402237415313721</v>
       </c>
       <c r="L113">
-        <v>6.0242640972137451</v>
+        <v>5.8258013725280762</v>
       </c>
       <c r="M113">
         <v>0</v>
       </c>
       <c r="N113">
-        <v>7.2236685752868652</v>
+        <v>5.9660251140594482</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B114">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E114">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
         <v>19</v>
@@ -5494,42 +5479,42 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>6.1609168433316135E-5</v>
+        <v>3.5447533007459557E-2</v>
       </c>
       <c r="I114">
-        <v>5.7872219764931402E-3</v>
+        <v>0.14747228445870489</v>
       </c>
       <c r="J114">
-        <v>0.99757172464735455</v>
+        <v>8.2231051954809287E-2</v>
       </c>
       <c r="K114" t="s">
         <v>20</v>
       </c>
       <c r="L114">
-        <v>0.61720609664916992</v>
+        <v>2.2553205490112301E-2</v>
       </c>
       <c r="M114" t="s">
         <v>20</v>
       </c>
       <c r="N114">
-        <v>0.61720609664916992</v>
+        <v>2.2553205490112301E-2</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B115">
-        <v>96453</v>
+        <v>36733</v>
       </c>
       <c r="C115">
         <v>3</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E115">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
         <v>19</v>
@@ -5538,42 +5523,42 @@
         <v>17</v>
       </c>
       <c r="H115">
-        <v>6.0716072534391023E-5</v>
+        <v>3.5371624364896173E-2</v>
       </c>
       <c r="I115">
-        <v>5.7888972795875687E-3</v>
+        <v>0.14693255112581</v>
       </c>
       <c r="J115">
-        <v>0.99763997627538425</v>
+        <v>8.3148793426777945E-2</v>
       </c>
       <c r="K115" t="s">
         <v>20</v>
       </c>
       <c r="L115">
-        <v>0.61720609664916992</v>
+        <v>2.2553205490112301E-2</v>
       </c>
       <c r="M115" t="s">
         <v>20</v>
       </c>
       <c r="N115">
-        <v>0.61720609664916992</v>
+        <v>2.2553205490112301E-2</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B116">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C116">
         <v>3</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E116">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
         <v>15</v>
@@ -5582,42 +5567,42 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>1.98444292373148E-2</v>
+        <v>4.8934414684611453E-2</v>
       </c>
       <c r="I116">
-        <v>8.0349648192197531E-2</v>
+        <v>0.1677731672258827</v>
       </c>
       <c r="J116">
-        <v>0.21784793351911369</v>
+        <v>-0.41003900077500433</v>
       </c>
       <c r="K116">
-        <v>2.885300874710083</v>
+        <v>0.22553801536560061</v>
       </c>
       <c r="L116">
-        <v>58.409522294998169</v>
+        <v>0.35393738746643072</v>
       </c>
       <c r="M116">
-        <v>0.1051375865936279</v>
+        <v>1.780247688293457E-2</v>
       </c>
       <c r="N116">
-        <v>61.39996075630188</v>
+        <v>0.59727787971496582</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B117">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C117">
         <v>3</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -5626,42 +5611,42 @@
         <v>17</v>
       </c>
       <c r="H117">
-        <v>1.8428303767293881E-2</v>
+        <v>4.9985649307816397E-2</v>
       </c>
       <c r="I117">
-        <v>7.9248419452742663E-2</v>
+        <v>0.16919412006777951</v>
       </c>
       <c r="J117">
-        <v>0.28369487221684409</v>
+        <v>-0.45277060320051649</v>
       </c>
       <c r="K117">
-        <v>2.885300874710083</v>
+        <v>0.22553801536560061</v>
       </c>
       <c r="L117">
-        <v>58.409522294998169</v>
+        <v>0.35393738746643072</v>
       </c>
       <c r="M117">
-        <v>0.1051375865936279</v>
+        <v>1.780247688293457E-2</v>
       </c>
       <c r="N117">
-        <v>61.39996075630188</v>
+        <v>0.59727787971496582</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B118">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E118">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
@@ -5670,42 +5655,42 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>12.847205169480461</v>
+        <v>2.6173501350992241E-2</v>
       </c>
       <c r="I118">
-        <v>3.2437635560836031</v>
+        <v>0.12893147422085849</v>
       </c>
       <c r="J118">
-        <v>-505.36216096950102</v>
+        <v>0.24581385248811091</v>
       </c>
       <c r="K118">
-        <v>7.8422966003417969</v>
+        <v>0.26839351654052729</v>
       </c>
       <c r="L118">
-        <v>7.4524633884429932</v>
+        <v>5.9662699699401864</v>
       </c>
       <c r="M118">
-        <v>2.2380352020263672E-3</v>
+        <v>9.9873542785644531E-4</v>
       </c>
       <c r="N118">
-        <v>15.29699802398682</v>
+        <v>6.2356622219085693</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B119">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C119">
         <v>3</v>
       </c>
       <c r="D119">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E119">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
@@ -5714,42 +5699,42 @@
         <v>17</v>
       </c>
       <c r="H119">
-        <v>12.719350642397041</v>
+        <v>2.5837068694342449E-2</v>
       </c>
       <c r="I119">
-        <v>3.2291631797717848</v>
+        <v>0.12813496486145229</v>
       </c>
       <c r="J119">
-        <v>-493.39906148013762</v>
+        <v>0.24907779749209821</v>
       </c>
       <c r="K119">
-        <v>7.8422966003417969</v>
+        <v>0.26839351654052729</v>
       </c>
       <c r="L119">
-        <v>7.4524633884429932</v>
+        <v>5.9662699699401864</v>
       </c>
       <c r="M119">
-        <v>2.2380352020263672E-3</v>
+        <v>9.9873542785644531E-4</v>
       </c>
       <c r="N119">
-        <v>15.29699802398682</v>
+        <v>6.2356622219085693</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B120">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E120">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F120" t="s">
         <v>19</v>
@@ -5758,42 +5743,42 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>4.5970949259996653E-5</v>
+        <v>2.5860092934708721E-2</v>
       </c>
       <c r="I120">
-        <v>4.8129334069430454E-3</v>
+        <v>0.12836188699686679</v>
       </c>
       <c r="J120">
-        <v>0.99818809235923078</v>
+        <v>0.254844676561089</v>
       </c>
       <c r="K120" t="s">
         <v>20</v>
       </c>
       <c r="L120">
-        <v>1.015649080276489</v>
+        <v>4.3442964553833008E-2</v>
       </c>
       <c r="M120" t="s">
         <v>20</v>
       </c>
       <c r="N120">
-        <v>1.015649080276489</v>
+        <v>4.3442964553833008E-2</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B121">
-        <v>96453</v>
+        <v>52416</v>
       </c>
       <c r="C121">
         <v>3</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121">
-        <v>330</v>
+        <v>21</v>
       </c>
       <c r="F121" t="s">
         <v>19</v>
@@ -5802,42 +5787,42 @@
         <v>17</v>
       </c>
       <c r="H121">
-        <v>4.5607553873112751E-5</v>
+        <v>2.5509174662427522E-2</v>
       </c>
       <c r="I121">
-        <v>4.8237861838713132E-3</v>
+        <v>0.12754727510493971</v>
       </c>
       <c r="J121">
-        <v>0.99822724190367773</v>
+        <v>0.25860762889625721</v>
       </c>
       <c r="K121" t="s">
         <v>20</v>
       </c>
       <c r="L121">
-        <v>1.015649080276489</v>
+        <v>4.3442964553833008E-2</v>
       </c>
       <c r="M121" t="s">
         <v>20</v>
       </c>
       <c r="N121">
-        <v>1.015649080276489</v>
+        <v>4.3442964553833008E-2</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B122">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C122">
         <v>3</v>
       </c>
       <c r="D122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F122" t="s">
         <v>15</v>
@@ -5846,42 +5831,42 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>7.6757570996323719E-3</v>
+        <v>4.1723746317474553E-2</v>
       </c>
       <c r="I122">
-        <v>6.7941459863429046E-2</v>
+        <v>0.1544814150646375</v>
       </c>
       <c r="J122">
-        <v>0.1610615318420586</v>
+        <v>-0.20226449923355669</v>
       </c>
       <c r="K122">
-        <v>2.593478918075562</v>
+        <v>0.35964417457580572</v>
       </c>
       <c r="L122">
-        <v>0.26389145851135248</v>
+        <v>2.70936107635498</v>
       </c>
       <c r="M122">
-        <v>1.085209846496582E-2</v>
+        <v>4.6072959899902337E-2</v>
       </c>
       <c r="N122">
-        <v>2.8682224750518799</v>
+        <v>3.115078210830688</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B123">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C123">
         <v>3</v>
       </c>
       <c r="D123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E123">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F123" t="s">
         <v>15</v>
@@ -5890,42 +5875,42 @@
         <v>17</v>
       </c>
       <c r="H123">
-        <v>7.7140687316588456E-3</v>
+        <v>4.2009306093581458E-2</v>
       </c>
       <c r="I123">
-        <v>6.8118963692393328E-2</v>
+        <v>0.15505202999204021</v>
       </c>
       <c r="J123">
-        <v>0.16256885492432521</v>
+        <v>-0.22094812808731579</v>
       </c>
       <c r="K123">
-        <v>2.593478918075562</v>
+        <v>0.35964417457580572</v>
       </c>
       <c r="L123">
-        <v>0.26389145851135248</v>
+        <v>2.70936107635498</v>
       </c>
       <c r="M123">
-        <v>1.085209846496582E-2</v>
+        <v>4.6072959899902337E-2</v>
       </c>
       <c r="N123">
-        <v>2.8682224750518799</v>
+        <v>3.115078210830688</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B124">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C124">
         <v>3</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F124" t="s">
         <v>18</v>
@@ -5934,42 +5919,42 @@
         <v>16</v>
       </c>
       <c r="H124">
-        <v>2.6141200440544641E-5</v>
+        <v>2.57521649483873E-2</v>
       </c>
       <c r="I124">
-        <v>3.2402592359516902E-3</v>
+        <v>0.12692975789476679</v>
       </c>
       <c r="J124">
-        <v>0.99714284097728278</v>
+        <v>0.25795460790427888</v>
       </c>
       <c r="K124">
-        <v>2.582660436630249</v>
+        <v>0.78256535530090332</v>
       </c>
       <c r="L124">
-        <v>5.797703742980957</v>
+        <v>6.0443060398101807</v>
       </c>
       <c r="M124">
-        <v>1.0027885437011721E-3</v>
+        <v>1.002311706542969E-3</v>
       </c>
       <c r="N124">
-        <v>8.3813669681549072</v>
+        <v>6.827873706817627</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B125">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C125">
         <v>3</v>
       </c>
       <c r="D125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E125">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F125" t="s">
         <v>18</v>
@@ -5978,42 +5963,42 @@
         <v>17</v>
       </c>
       <c r="H125">
-        <v>2.6113821557500719E-5</v>
+        <v>2.5371908902458849E-2</v>
       </c>
       <c r="I125">
-        <v>3.2404799325033528E-3</v>
+        <v>0.12609437672637749</v>
       </c>
       <c r="J125">
-        <v>0.99716511114304041</v>
+        <v>0.26259708714417251</v>
       </c>
       <c r="K125">
-        <v>2.582660436630249</v>
+        <v>0.78256535530090332</v>
       </c>
       <c r="L125">
-        <v>5.797703742980957</v>
+        <v>6.0443060398101807</v>
       </c>
       <c r="M125">
-        <v>1.0027885437011721E-3</v>
+        <v>1.002311706542969E-3</v>
       </c>
       <c r="N125">
-        <v>8.3813669681549072</v>
+        <v>6.827873706817627</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B126">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C126">
         <v>3</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F126" t="s">
         <v>19</v>
@@ -6022,42 +6007,42 @@
         <v>16</v>
       </c>
       <c r="H126">
-        <v>1.0978373595510109E-5</v>
+        <v>2.5096717568921161E-2</v>
       </c>
       <c r="I126">
-        <v>1.991353298657792E-3</v>
+        <v>0.12506964310730789</v>
       </c>
       <c r="J126">
-        <v>0.99880009492125232</v>
+        <v>0.27684124165599838</v>
       </c>
       <c r="K126" t="s">
         <v>20</v>
       </c>
       <c r="L126">
-        <v>1.6499176025390621</v>
+        <v>0.116274356842041</v>
       </c>
       <c r="M126" t="s">
         <v>20</v>
       </c>
       <c r="N126">
-        <v>1.6499176025390621</v>
+        <v>0.116274356842041</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B127">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C127">
         <v>3</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F127" t="s">
         <v>19</v>
@@ -6066,42 +6051,42 @@
         <v>17</v>
       </c>
       <c r="H127">
-        <v>1.079919753141735E-5</v>
+        <v>2.4865089201563689E-2</v>
       </c>
       <c r="I127">
-        <v>1.986906263208796E-3</v>
+        <v>0.1245483691917528</v>
       </c>
       <c r="J127">
-        <v>0.99882765053446854</v>
+        <v>0.27732717013357611</v>
       </c>
       <c r="K127" t="s">
         <v>20</v>
       </c>
       <c r="L127">
-        <v>1.6499176025390621</v>
+        <v>0.116274356842041</v>
       </c>
       <c r="M127" t="s">
         <v>20</v>
       </c>
       <c r="N127">
-        <v>1.6499176025390621</v>
+        <v>0.116274356842041</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B128">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C128">
         <v>3</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F128" t="s">
         <v>15</v>
@@ -6110,42 +6095,42 @@
         <v>16</v>
       </c>
       <c r="H128">
-        <v>6.7757692736174066E-3</v>
+        <v>3.7405513678996548E-2</v>
       </c>
       <c r="I128">
-        <v>5.5088070301195877E-2</v>
+        <v>0.1516401793257717</v>
       </c>
       <c r="J128">
-        <v>0.25942764717339861</v>
+        <v>-7.7835169202388865E-2</v>
       </c>
       <c r="K128">
-        <v>3.8152415752410889</v>
+        <v>1.0041534900665281</v>
       </c>
       <c r="L128">
-        <v>2.3063325881958008</v>
+        <v>14.357276678085331</v>
       </c>
       <c r="M128">
-        <v>2.640628814697266E-2</v>
+        <v>9.8093032836914063E-2</v>
       </c>
       <c r="N128">
-        <v>6.1479804515838623</v>
+        <v>15.45952320098877</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B129">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C129">
         <v>3</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F129" t="s">
         <v>15</v>
@@ -6154,42 +6139,42 @@
         <v>17</v>
       </c>
       <c r="H129">
-        <v>6.7948118458851219E-3</v>
+        <v>3.7536394421823722E-2</v>
       </c>
       <c r="I129">
-        <v>5.5209126130891961E-2</v>
+        <v>0.15196636484536211</v>
       </c>
       <c r="J129">
-        <v>0.26236241047210501</v>
+        <v>-9.0948524652615603E-2</v>
       </c>
       <c r="K129">
-        <v>3.8152415752410889</v>
+        <v>1.0041534900665281</v>
       </c>
       <c r="L129">
-        <v>2.3063325881958008</v>
+        <v>14.357276678085331</v>
       </c>
       <c r="M129">
-        <v>2.640628814697266E-2</v>
+        <v>9.8093032836914063E-2</v>
       </c>
       <c r="N129">
-        <v>6.1479804515838623</v>
+        <v>15.45952320098877</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B130">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C130">
         <v>3</v>
       </c>
       <c r="D130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F130" t="s">
         <v>18</v>
@@ -6198,42 +6183,42 @@
         <v>16</v>
       </c>
       <c r="H130">
-        <v>6.2367259510999151E-5</v>
+        <v>2.555595184530017E-2</v>
       </c>
       <c r="I130">
-        <v>5.5816649548153423E-3</v>
+        <v>0.12633984160616549</v>
       </c>
       <c r="J130">
-        <v>0.99318343552587507</v>
+        <v>0.26360846377645158</v>
       </c>
       <c r="K130">
-        <v>4.188417911529541</v>
+        <v>3.140292644500732</v>
       </c>
       <c r="L130">
-        <v>6.0947227478027344</v>
+        <v>7.2787034511566162</v>
       </c>
       <c r="M130">
-        <v>9.9992752075195313E-4</v>
+        <v>1.425504684448242E-3</v>
       </c>
       <c r="N130">
-        <v>10.284140586853029</v>
+        <v>10.4204216003418</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B131">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E131">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -6242,42 +6227,42 @@
         <v>17</v>
       </c>
       <c r="H131">
-        <v>6.2327258583522421E-5</v>
+        <v>2.5226555472137209E-2</v>
       </c>
       <c r="I131">
-        <v>5.5730528831298134E-3</v>
+        <v>0.12554165758891961</v>
       </c>
       <c r="J131">
-        <v>0.99323381870959782</v>
+        <v>0.26682160345174821</v>
       </c>
       <c r="K131">
-        <v>4.188417911529541</v>
+        <v>3.140292644500732</v>
       </c>
       <c r="L131">
-        <v>6.0947227478027344</v>
+        <v>7.2787034511566162</v>
       </c>
       <c r="M131">
-        <v>9.9992752075195313E-4</v>
+        <v>1.425504684448242E-3</v>
       </c>
       <c r="N131">
-        <v>10.284140586853029</v>
+        <v>10.4204216003418</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B132">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C132">
         <v>3</v>
       </c>
       <c r="D132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F132" t="s">
         <v>19</v>
@@ -6286,42 +6271,42 @@
         <v>16</v>
       </c>
       <c r="H132">
-        <v>9.7867348183374449E-6</v>
+        <v>2.447258100066188E-2</v>
       </c>
       <c r="I132">
-        <v>1.9307612993164931E-3</v>
+        <v>0.12321706667251089</v>
       </c>
       <c r="J132">
-        <v>0.99893033765787653</v>
+        <v>0.29482565832323632</v>
       </c>
       <c r="K132" t="s">
         <v>20</v>
       </c>
       <c r="L132">
-        <v>8.7709956169128418</v>
+        <v>0.44185233116149902</v>
       </c>
       <c r="M132" t="s">
         <v>20</v>
       </c>
       <c r="N132">
-        <v>8.7709956169128418</v>
+        <v>0.44185233116149902</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B133">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C133">
         <v>3</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="F133" t="s">
         <v>19</v>
@@ -6330,42 +6315,42 @@
         <v>17</v>
       </c>
       <c r="H133">
-        <v>9.6544633073642119E-6</v>
+        <v>2.4388487100407349E-2</v>
       </c>
       <c r="I133">
-        <v>1.9271551971881469E-3</v>
+        <v>0.12327006753303819</v>
       </c>
       <c r="J133">
-        <v>0.99895192167145253</v>
+        <v>0.29117901624484122</v>
       </c>
       <c r="K133" t="s">
         <v>20</v>
       </c>
       <c r="L133">
-        <v>8.7709956169128418</v>
+        <v>0.44185233116149902</v>
       </c>
       <c r="M133" t="s">
         <v>20</v>
       </c>
       <c r="N133">
-        <v>8.7709956169128418</v>
+        <v>0.44185233116149902</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B134">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
       <c r="D134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E134">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F134" t="s">
         <v>15</v>
@@ -6374,42 +6359,42 @@
         <v>16</v>
       </c>
       <c r="H134">
-        <v>7.3229070711705114E-3</v>
+        <v>4.0257340912628378E-2</v>
       </c>
       <c r="I134">
-        <v>5.2575244413527247E-2</v>
+        <v>0.15820277707655789</v>
       </c>
       <c r="J134">
-        <v>0.19962703860900111</v>
+        <v>-0.2376616435823391</v>
       </c>
       <c r="K134">
-        <v>7.8768925666809082</v>
+        <v>0.21131753921508789</v>
       </c>
       <c r="L134">
-        <v>20.475179195404049</v>
+        <v>0.34101152420043951</v>
       </c>
       <c r="M134">
-        <v>6.4859390258789063E-2</v>
+        <v>1.5761137008666989E-2</v>
       </c>
       <c r="N134">
-        <v>28.41693115234375</v>
+        <v>0.56809020042419434</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B135">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C135">
         <v>3</v>
       </c>
       <c r="D135">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -6418,42 +6403,42 @@
         <v>17</v>
       </c>
       <c r="H135">
-        <v>7.3528153794047953E-3</v>
+        <v>4.0074255158907592E-2</v>
       </c>
       <c r="I135">
-        <v>5.2661041673063853E-2</v>
+        <v>0.15742702162097949</v>
       </c>
       <c r="J135">
-        <v>0.2017861368755427</v>
+        <v>-0.23572940760991751</v>
       </c>
       <c r="K135">
-        <v>7.8768925666809082</v>
+        <v>0.21131753921508789</v>
       </c>
       <c r="L135">
-        <v>20.475179195404049</v>
+        <v>0.34101152420043951</v>
       </c>
       <c r="M135">
-        <v>6.4859390258789063E-2</v>
+        <v>1.5761137008666989E-2</v>
       </c>
       <c r="N135">
-        <v>28.41693115234375</v>
+        <v>0.56809020042419434</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B136">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C136">
         <v>3</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E136">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
@@ -6462,42 +6447,42 @@
         <v>16</v>
       </c>
       <c r="H136">
-        <v>1.050240561574606E-4</v>
+        <v>2.573109769795473E-2</v>
       </c>
       <c r="I136">
-        <v>7.0079906124654321E-3</v>
+        <v>0.12744442842474471</v>
       </c>
       <c r="J136">
-        <v>0.98852116870703299</v>
+        <v>0.2089295530684577</v>
       </c>
       <c r="K136">
-        <v>10.232853174209589</v>
+        <v>0.25193071365356451</v>
       </c>
       <c r="L136">
-        <v>10.365872383117679</v>
+        <v>5.9100675582885742</v>
       </c>
       <c r="M136">
-        <v>2.1979808807373051E-3</v>
+        <v>1.437902450561523E-3</v>
       </c>
       <c r="N136">
-        <v>20.600923538208011</v>
+        <v>6.1634361743927002</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B137">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E137">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F137" t="s">
         <v>18</v>
@@ -6506,42 +6491,42 @@
         <v>17</v>
       </c>
       <c r="H137">
-        <v>1.050920652690133E-4</v>
+        <v>2.5352779843308419E-2</v>
       </c>
       <c r="I137">
-        <v>7.0132349754473394E-3</v>
+        <v>0.12662535772364711</v>
       </c>
       <c r="J137">
-        <v>0.98859131651298215</v>
+        <v>0.21822188602618589</v>
       </c>
       <c r="K137">
-        <v>10.232853174209589</v>
+        <v>0.25193071365356451</v>
       </c>
       <c r="L137">
-        <v>10.365872383117679</v>
+        <v>5.9100675582885742</v>
       </c>
       <c r="M137">
-        <v>2.1979808807373051E-3</v>
+        <v>1.437902450561523E-3</v>
       </c>
       <c r="N137">
-        <v>20.600923538208011</v>
+        <v>6.1634361743927002</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B138">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C138">
         <v>3</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F138" t="s">
         <v>19</v>
@@ -6550,42 +6535,42 @@
         <v>16</v>
       </c>
       <c r="H138">
-        <v>9.5152743216411011E-6</v>
+        <v>2.5451715599659499E-2</v>
       </c>
       <c r="I138">
-        <v>1.890067190623161E-3</v>
+        <v>0.12637510968833929</v>
       </c>
       <c r="J138">
-        <v>0.99896000751979475</v>
+        <v>0.21751880658408401</v>
       </c>
       <c r="K138" t="s">
         <v>20</v>
       </c>
       <c r="L138">
-        <v>29.798313617706299</v>
+        <v>4.2075872421264648E-2</v>
       </c>
       <c r="M138" t="s">
         <v>20</v>
       </c>
       <c r="N138">
-        <v>29.798313617706299</v>
+        <v>4.2075872421264648E-2</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B139">
-        <v>2049280</v>
+        <v>52416</v>
       </c>
       <c r="C139">
         <v>3</v>
       </c>
       <c r="D139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="F139" t="s">
         <v>19</v>
@@ -6594,2123 +6579,2143 @@
         <v>17</v>
       </c>
       <c r="H139">
+        <v>2.511044918183224E-2</v>
+      </c>
+      <c r="I139">
+        <v>0.12565838517017491</v>
+      </c>
+      <c r="J139">
+        <v>0.22569439234138119</v>
+      </c>
+      <c r="K139" t="s">
+        <v>20</v>
+      </c>
+      <c r="L139">
+        <v>4.2075872421264648E-2</v>
+      </c>
+      <c r="M139" t="s">
+        <v>20</v>
+      </c>
+      <c r="N139">
+        <v>4.2075872421264648E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140">
+        <v>52416</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>56</v>
+      </c>
+      <c r="F140" t="s">
+        <v>15</v>
+      </c>
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140">
+        <v>3.1463949923470541E-2</v>
+      </c>
+      <c r="I140">
+        <v>0.1424377990802429</v>
+      </c>
+      <c r="J140">
+        <v>3.2680174768838777E-2</v>
+      </c>
+      <c r="K140">
+        <v>0.31559467315673828</v>
+      </c>
+      <c r="L140">
+        <v>2.6327462196350102</v>
+      </c>
+      <c r="M140">
+        <v>4.2411327362060547E-2</v>
+      </c>
+      <c r="N140">
+        <v>2.990752220153809</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141">
+        <v>52416</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+      <c r="E141">
+        <v>56</v>
+      </c>
+      <c r="F141" t="s">
+        <v>15</v>
+      </c>
+      <c r="G141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141">
+        <v>3.136025600381679E-2</v>
+      </c>
+      <c r="I141">
+        <v>0.14186803425324049</v>
+      </c>
+      <c r="J141">
+        <v>3.2975399781622228E-2</v>
+      </c>
+      <c r="K141">
+        <v>0.31559467315673828</v>
+      </c>
+      <c r="L141">
+        <v>2.6327462196350102</v>
+      </c>
+      <c r="M141">
+        <v>4.2411327362060547E-2</v>
+      </c>
+      <c r="N141">
+        <v>2.990752220153809</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142">
+        <v>52416</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>56</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142">
+        <v>2.524573135084705E-2</v>
+      </c>
+      <c r="I142">
+        <v>0.12539643856758731</v>
+      </c>
+      <c r="J142">
+        <v>0.22385153493021581</v>
+      </c>
+      <c r="K142">
+        <v>0.73837137222290039</v>
+      </c>
+      <c r="L142">
+        <v>6.1181294918060303</v>
+      </c>
+      <c r="M142">
+        <v>1.4529228210449221E-3</v>
+      </c>
+      <c r="N142">
+        <v>6.8579537868499756</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143">
+        <v>52416</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143">
+        <v>3</v>
+      </c>
+      <c r="E143">
+        <v>56</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143">
+        <v>2.4987360124422819E-2</v>
+      </c>
+      <c r="I143">
+        <v>0.12487966724003741</v>
+      </c>
+      <c r="J143">
+        <v>0.22948996551903991</v>
+      </c>
+      <c r="K143">
+        <v>0.73837137222290039</v>
+      </c>
+      <c r="L143">
+        <v>6.1181294918060303</v>
+      </c>
+      <c r="M143">
+        <v>1.4529228210449221E-3</v>
+      </c>
+      <c r="N143">
+        <v>6.8579537868499756</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144">
+        <v>52416</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>3</v>
+      </c>
+      <c r="E144">
+        <v>56</v>
+      </c>
+      <c r="F144" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144">
+        <v>2.4022328777700649E-2</v>
+      </c>
+      <c r="I144">
+        <v>0.1220807247865356</v>
+      </c>
+      <c r="J144">
+        <v>0.26146351836273951</v>
+      </c>
+      <c r="K144" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144">
+        <v>0.1204957962036133</v>
+      </c>
+      <c r="M144" t="s">
+        <v>20</v>
+      </c>
+      <c r="N144">
+        <v>0.1204957962036133</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145">
+        <v>52416</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+      <c r="E145">
+        <v>56</v>
+      </c>
+      <c r="F145" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145">
+        <v>2.3814701382688212E-2</v>
+      </c>
+      <c r="I145">
+        <v>0.1213951072830691</v>
+      </c>
+      <c r="J145">
+        <v>0.26565006098447502</v>
+      </c>
+      <c r="K145" t="s">
+        <v>20</v>
+      </c>
+      <c r="L145">
+        <v>0.1204957962036133</v>
+      </c>
+      <c r="M145" t="s">
+        <v>20</v>
+      </c>
+      <c r="N145">
+        <v>0.1204957962036133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146">
+        <v>52416</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>126</v>
+      </c>
+      <c r="F146" t="s">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146">
+        <v>3.5487114391311657E-2</v>
+      </c>
+      <c r="I146">
+        <v>0.14359971394707979</v>
+      </c>
+      <c r="J146">
+        <v>-9.100698972811716E-2</v>
+      </c>
+      <c r="K146">
+        <v>1.0275177955627439</v>
+      </c>
+      <c r="L146">
+        <v>13.906229972839361</v>
+      </c>
+      <c r="M146">
+        <v>9.3813896179199219E-2</v>
+      </c>
+      <c r="N146">
+        <v>15.027561664581301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147">
+        <v>52416</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>126</v>
+      </c>
+      <c r="F147" t="s">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>17</v>
+      </c>
+      <c r="H147">
+        <v>3.5538556583381377E-2</v>
+      </c>
+      <c r="I147">
+        <v>0.14374843017783381</v>
+      </c>
+      <c r="J147">
+        <v>-9.5866643059287604E-2</v>
+      </c>
+      <c r="K147">
+        <v>1.0275177955627439</v>
+      </c>
+      <c r="L147">
+        <v>13.906229972839361</v>
+      </c>
+      <c r="M147">
+        <v>9.3813896179199219E-2</v>
+      </c>
+      <c r="N147">
+        <v>15.027561664581301</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148">
+        <v>52416</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>126</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s">
+        <v>16</v>
+      </c>
+      <c r="H148">
+        <v>2.5030302768412661E-2</v>
+      </c>
+      <c r="I148">
+        <v>0.1246726444013667</v>
+      </c>
+      <c r="J148">
+        <v>0.23047461751257081</v>
+      </c>
+      <c r="K148">
+        <v>3.0473427772521968</v>
+      </c>
+      <c r="L148">
+        <v>7.6008164882659912</v>
+      </c>
+      <c r="M148">
+        <v>1.393556594848633E-3</v>
+      </c>
+      <c r="N148">
+        <v>10.649552822113041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149">
+        <v>52416</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149">
+        <v>4</v>
+      </c>
+      <c r="E149">
+        <v>126</v>
+      </c>
+      <c r="F149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149">
+        <v>2.4685158432738531E-2</v>
+      </c>
+      <c r="I149">
+        <v>0.123693853137891</v>
+      </c>
+      <c r="J149">
+        <v>0.2388086544369733</v>
+      </c>
+      <c r="K149">
+        <v>3.0473427772521968</v>
+      </c>
+      <c r="L149">
+        <v>7.6008164882659912</v>
+      </c>
+      <c r="M149">
+        <v>1.393556594848633E-3</v>
+      </c>
+      <c r="N149">
+        <v>10.649552822113041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150">
+        <v>52416</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150">
+        <v>126</v>
+      </c>
+      <c r="F150" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>16</v>
+      </c>
+      <c r="H150">
+        <v>2.3408291889193002E-2</v>
+      </c>
+      <c r="I150">
+        <v>0.1199690514197944</v>
+      </c>
+      <c r="J150">
+        <v>0.28034131524207012</v>
+      </c>
+      <c r="K150" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150">
+        <v>0.46490788459777832</v>
+      </c>
+      <c r="M150" t="s">
+        <v>20</v>
+      </c>
+      <c r="N150">
+        <v>0.46490788459777832</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151">
+        <v>52416</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151">
+        <v>4</v>
+      </c>
+      <c r="E151">
+        <v>126</v>
+      </c>
+      <c r="F151" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151">
+        <v>2.3420365934134039E-2</v>
+      </c>
+      <c r="I151">
+        <v>0.119674563093012</v>
+      </c>
+      <c r="J151">
+        <v>0.27780978568326642</v>
+      </c>
+      <c r="K151" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151">
+        <v>0.46490788459777832</v>
+      </c>
+      <c r="M151" t="s">
+        <v>20</v>
+      </c>
+      <c r="N151">
+        <v>0.46490788459777832</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152">
+        <v>52416</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>21</v>
+      </c>
+      <c r="F152" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
+        <v>16</v>
+      </c>
+      <c r="H152">
+        <v>2.6328766177118969E-2</v>
+      </c>
+      <c r="I152">
+        <v>0.12768507549671149</v>
+      </c>
+      <c r="J152">
+        <v>-4.0739463527111892E-2</v>
+      </c>
+      <c r="K152">
+        <v>0.21718502044677729</v>
+      </c>
+      <c r="L152">
+        <v>0.33914685249328608</v>
+      </c>
+      <c r="M152">
+        <v>2.346348762512207E-2</v>
+      </c>
+      <c r="N152">
+        <v>0.57979536056518555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153">
+        <v>52416</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>21</v>
+      </c>
+      <c r="F153" t="s">
+        <v>15</v>
+      </c>
+      <c r="G153" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153">
+        <v>2.6543016319597171E-2</v>
+      </c>
+      <c r="I153">
+        <v>0.12852161224632649</v>
+      </c>
+      <c r="J153">
+        <v>-5.6630106850433348E-2</v>
+      </c>
+      <c r="K153">
+        <v>0.21718502044677729</v>
+      </c>
+      <c r="L153">
+        <v>0.33914685249328608</v>
+      </c>
+      <c r="M153">
+        <v>2.346348762512207E-2</v>
+      </c>
+      <c r="N153">
+        <v>0.57979536056518555</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154">
+        <v>52416</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>21</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154">
+        <v>1.489131970076232E-2</v>
+      </c>
+      <c r="I154">
+        <v>9.7192088117705841E-2</v>
+      </c>
+      <c r="J154">
+        <v>0.41136686875776862</v>
+      </c>
+      <c r="K154">
+        <v>0.26140403747558588</v>
+      </c>
+      <c r="L154">
+        <v>5.8605542182922363</v>
+      </c>
+      <c r="M154">
+        <v>1.3067722320556641E-3</v>
+      </c>
+      <c r="N154">
+        <v>6.1232650279998779</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155">
+        <v>52416</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>21</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155">
+        <v>1.467343539307474E-2</v>
+      </c>
+      <c r="I155">
+        <v>9.684512851000833E-2</v>
+      </c>
+      <c r="J155">
+        <v>0.41587672551742622</v>
+      </c>
+      <c r="K155">
+        <v>0.26140403747558588</v>
+      </c>
+      <c r="L155">
+        <v>5.8605542182922363</v>
+      </c>
+      <c r="M155">
+        <v>1.3067722320556641E-3</v>
+      </c>
+      <c r="N155">
+        <v>6.1232650279998779</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156">
+        <v>52416</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>21</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s">
+        <v>16</v>
+      </c>
+      <c r="H156">
+        <v>1.461747894866057E-2</v>
+      </c>
+      <c r="I156">
+        <v>9.5413828460847519E-2</v>
+      </c>
+      <c r="J156">
+        <v>0.4221914123583691</v>
+      </c>
+      <c r="K156" t="s">
+        <v>20</v>
+      </c>
+      <c r="L156">
+        <v>5.3371667861938477E-2</v>
+      </c>
+      <c r="M156" t="s">
+        <v>20</v>
+      </c>
+      <c r="N156">
+        <v>5.3371667861938477E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>27</v>
+      </c>
+      <c r="B157">
+        <v>52416</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>21</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157">
+        <v>1.4432086487250979E-2</v>
+      </c>
+      <c r="I157">
+        <v>9.5138563039554883E-2</v>
+      </c>
+      <c r="J157">
+        <v>0.42548439470913418</v>
+      </c>
+      <c r="K157" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157">
+        <v>5.3371667861938477E-2</v>
+      </c>
+      <c r="M157" t="s">
+        <v>20</v>
+      </c>
+      <c r="N157">
+        <v>5.3371667861938477E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>27</v>
+      </c>
+      <c r="B158">
+        <v>52416</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>3</v>
+      </c>
+      <c r="E158">
+        <v>56</v>
+      </c>
+      <c r="F158" t="s">
+        <v>15</v>
+      </c>
+      <c r="G158" t="s">
+        <v>16</v>
+      </c>
+      <c r="H158">
+        <v>2.2783129186972791E-2</v>
+      </c>
+      <c r="I158">
+        <v>0.117989384868351</v>
+      </c>
+      <c r="J158">
+        <v>9.9414629306660562E-2</v>
+      </c>
+      <c r="K158">
+        <v>0.37779974937438959</v>
+      </c>
+      <c r="L158">
+        <v>2.790127277374268</v>
+      </c>
+      <c r="M158">
+        <v>4.0362358093261719E-2</v>
+      </c>
+      <c r="N158">
+        <v>3.2082893848419189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>27</v>
+      </c>
+      <c r="B159">
+        <v>52416</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>56</v>
+      </c>
+      <c r="F159" t="s">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159">
+        <v>2.2464050775221751E-2</v>
+      </c>
+      <c r="I159">
+        <v>0.11766973929628639</v>
+      </c>
+      <c r="J159">
+        <v>0.1057462315090667</v>
+      </c>
+      <c r="K159">
+        <v>0.37779974937438959</v>
+      </c>
+      <c r="L159">
+        <v>2.790127277374268</v>
+      </c>
+      <c r="M159">
+        <v>4.0362358093261719E-2</v>
+      </c>
+      <c r="N159">
+        <v>3.2082893848419189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160">
+        <v>52416</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+      <c r="E160">
+        <v>56</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>16</v>
+      </c>
+      <c r="H160">
+        <v>1.4547177070656911E-2</v>
+      </c>
+      <c r="I160">
+        <v>9.5680056901514196E-2</v>
+      </c>
+      <c r="J160">
+        <v>0.42497034769875969</v>
+      </c>
+      <c r="K160">
+        <v>0.73932671546936035</v>
+      </c>
+      <c r="L160">
+        <v>6.3457536697387704</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>7.0850803852081299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>27</v>
+      </c>
+      <c r="B161">
+        <v>52416</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161">
+        <v>3</v>
+      </c>
+      <c r="E161">
+        <v>56</v>
+      </c>
+      <c r="F161" t="s">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161">
+        <v>1.423360058641512E-2</v>
+      </c>
+      <c r="I161">
+        <v>9.4911946554774362E-2</v>
+      </c>
+      <c r="J161">
+        <v>0.43338576417231972</v>
+      </c>
+      <c r="K161">
+        <v>0.73932671546936035</v>
+      </c>
+      <c r="L161">
+        <v>6.3457536697387704</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>7.0850803852081299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>27</v>
+      </c>
+      <c r="B162">
+        <v>52416</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+      <c r="E162">
+        <v>56</v>
+      </c>
+      <c r="F162" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162">
+        <v>1.341513464473959E-2</v>
+      </c>
+      <c r="I162">
+        <v>9.0159202813842196E-2</v>
+      </c>
+      <c r="J162">
+        <v>0.46971840839835322</v>
+      </c>
+      <c r="K162" t="s">
+        <v>20</v>
+      </c>
+      <c r="L162">
+        <v>0.13455963134765619</v>
+      </c>
+      <c r="M162" t="s">
+        <v>20</v>
+      </c>
+      <c r="N162">
+        <v>0.13455963134765619</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>27</v>
+      </c>
+      <c r="B163">
+        <v>52416</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163">
+        <v>3</v>
+      </c>
+      <c r="E163">
+        <v>56</v>
+      </c>
+      <c r="F163" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163">
+        <v>1.3270625514738781E-2</v>
+      </c>
+      <c r="I163">
+        <v>9.0268208308921169E-2</v>
+      </c>
+      <c r="J163">
+        <v>0.47172008309930719</v>
+      </c>
+      <c r="K163" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163">
+        <v>0.13455963134765619</v>
+      </c>
+      <c r="M163" t="s">
+        <v>20</v>
+      </c>
+      <c r="N163">
+        <v>0.13455963134765619</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>27</v>
+      </c>
+      <c r="B164">
+        <v>52416</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164">
+        <v>4</v>
+      </c>
+      <c r="E164">
+        <v>126</v>
+      </c>
+      <c r="F164" t="s">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164">
+        <v>2.1167090637317171E-2</v>
+      </c>
+      <c r="I164">
+        <v>0.11395796888271641</v>
+      </c>
+      <c r="J164">
+        <v>0.16329438280112371</v>
+      </c>
+      <c r="K164">
+        <v>1.0737373828887939</v>
+      </c>
+      <c r="L164">
+        <v>14.271782398223881</v>
+      </c>
+      <c r="M164">
+        <v>9.9057197570800781E-2</v>
+      </c>
+      <c r="N164">
+        <v>15.44457697868347</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>27</v>
+      </c>
+      <c r="B165">
+        <v>52416</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>4</v>
+      </c>
+      <c r="E165">
+        <v>126</v>
+      </c>
+      <c r="F165" t="s">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165">
+        <v>2.0918311879403861E-2</v>
+      </c>
+      <c r="I165">
+        <v>0.11321257414275129</v>
+      </c>
+      <c r="J165">
+        <v>0.16727933818334681</v>
+      </c>
+      <c r="K165">
+        <v>1.0737373828887939</v>
+      </c>
+      <c r="L165">
+        <v>14.271782398223881</v>
+      </c>
+      <c r="M165">
+        <v>9.9057197570800781E-2</v>
+      </c>
+      <c r="N165">
+        <v>15.44457697868347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>27</v>
+      </c>
+      <c r="B166">
+        <v>52416</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>4</v>
+      </c>
+      <c r="E166">
+        <v>126</v>
+      </c>
+      <c r="F166" t="s">
+        <v>18</v>
+      </c>
+      <c r="G166" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166">
+        <v>1.414379956074124E-2</v>
+      </c>
+      <c r="I166">
+        <v>9.3112560896287486E-2</v>
+      </c>
+      <c r="J166">
+        <v>0.44091529895262332</v>
+      </c>
+      <c r="K166">
+        <v>3.0134825706481929</v>
+      </c>
+      <c r="L166">
+        <v>7.5322208404541016</v>
+      </c>
+      <c r="M166">
+        <v>3.0128955841064449E-3</v>
+      </c>
+      <c r="N166">
+        <v>10.5487163066864</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>27</v>
+      </c>
+      <c r="B167">
+        <v>52416</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167">
+        <v>4</v>
+      </c>
+      <c r="E167">
+        <v>126</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167">
+        <v>1.3929697136757331E-2</v>
+      </c>
+      <c r="I167">
+        <v>9.2740252055297012E-2</v>
+      </c>
+      <c r="J167">
+        <v>0.44548361810940379</v>
+      </c>
+      <c r="K167">
+        <v>3.0134825706481929</v>
+      </c>
+      <c r="L167">
+        <v>7.5322208404541016</v>
+      </c>
+      <c r="M167">
+        <v>3.0128955841064449E-3</v>
+      </c>
+      <c r="N167">
+        <v>10.5487163066864</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168">
+        <v>52416</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>4</v>
+      </c>
+      <c r="E168">
+        <v>126</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168">
+        <v>1.269136094140615E-2</v>
+      </c>
+      <c r="I168">
+        <v>8.7246435578489656E-2</v>
+      </c>
+      <c r="J168">
+        <v>0.49832817501844251</v>
+      </c>
+      <c r="K168" t="s">
+        <v>20</v>
+      </c>
+      <c r="L168">
+        <v>0.50852441787719727</v>
+      </c>
+      <c r="M168" t="s">
+        <v>20</v>
+      </c>
+      <c r="N168">
+        <v>0.50852441787719727</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169">
+        <v>52416</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169">
+        <v>4</v>
+      </c>
+      <c r="E169">
+        <v>126</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169">
+        <v>1.27965730884549E-2</v>
+      </c>
+      <c r="I169">
+        <v>8.7938772818406508E-2</v>
+      </c>
+      <c r="J169">
+        <v>0.49059126412130821</v>
+      </c>
+      <c r="K169" t="s">
+        <v>20</v>
+      </c>
+      <c r="L169">
+        <v>0.50852441787719727</v>
+      </c>
+      <c r="M169" t="s">
+        <v>20</v>
+      </c>
+      <c r="N169">
+        <v>0.50852441787719727</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170">
+        <v>2049280</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>28</v>
+      </c>
+      <c r="F170" t="s">
+        <v>15</v>
+      </c>
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170">
+        <v>7.6757570996323719E-3</v>
+      </c>
+      <c r="I170">
+        <v>6.7941459863429046E-2</v>
+      </c>
+      <c r="J170">
+        <v>0.1610615318420586</v>
+      </c>
+      <c r="K170">
+        <v>2.593478918075562</v>
+      </c>
+      <c r="L170">
+        <v>0.26389145851135248</v>
+      </c>
+      <c r="M170">
+        <v>1.085209846496582E-2</v>
+      </c>
+      <c r="N170">
+        <v>2.8682224750518799</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171">
+        <v>2049280</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>28</v>
+      </c>
+      <c r="F171" t="s">
+        <v>15</v>
+      </c>
+      <c r="G171" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171">
+        <v>7.7140687316588456E-3</v>
+      </c>
+      <c r="I171">
+        <v>6.8118963692393328E-2</v>
+      </c>
+      <c r="J171">
+        <v>0.16256885492432521</v>
+      </c>
+      <c r="K171">
+        <v>2.593478918075562</v>
+      </c>
+      <c r="L171">
+        <v>0.26389145851135248</v>
+      </c>
+      <c r="M171">
+        <v>1.085209846496582E-2</v>
+      </c>
+      <c r="N171">
+        <v>2.8682224750518799</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>28</v>
+      </c>
+      <c r="B172">
+        <v>2049280</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>28</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172">
+        <v>2.6141200440544641E-5</v>
+      </c>
+      <c r="I172">
+        <v>3.2402592359516902E-3</v>
+      </c>
+      <c r="J172">
+        <v>0.99714284097728278</v>
+      </c>
+      <c r="K172">
+        <v>2.582660436630249</v>
+      </c>
+      <c r="L172">
+        <v>5.797703742980957</v>
+      </c>
+      <c r="M172">
+        <v>1.0027885437011721E-3</v>
+      </c>
+      <c r="N172">
+        <v>8.3813669681549072</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173">
+        <v>2049280</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>28</v>
+      </c>
+      <c r="F173" t="s">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H173">
+        <v>2.6113821557500719E-5</v>
+      </c>
+      <c r="I173">
+        <v>3.2404799325033528E-3</v>
+      </c>
+      <c r="J173">
+        <v>0.99716511114304041</v>
+      </c>
+      <c r="K173">
+        <v>2.582660436630249</v>
+      </c>
+      <c r="L173">
+        <v>5.797703742980957</v>
+      </c>
+      <c r="M173">
+        <v>1.0027885437011721E-3</v>
+      </c>
+      <c r="N173">
+        <v>8.3813669681549072</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174">
+        <v>2049280</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>28</v>
+      </c>
+      <c r="F174" t="s">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174">
+        <v>1.0978373595510109E-5</v>
+      </c>
+      <c r="I174">
+        <v>1.991353298657792E-3</v>
+      </c>
+      <c r="J174">
+        <v>0.99880009492125232</v>
+      </c>
+      <c r="K174" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174">
+        <v>1.6499176025390621</v>
+      </c>
+      <c r="M174" t="s">
+        <v>20</v>
+      </c>
+      <c r="N174">
+        <v>1.6499176025390621</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175">
+        <v>2049280</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>28</v>
+      </c>
+      <c r="F175" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175">
+        <v>1.079919753141735E-5</v>
+      </c>
+      <c r="I175">
+        <v>1.986906263208796E-3</v>
+      </c>
+      <c r="J175">
+        <v>0.99882765053446854</v>
+      </c>
+      <c r="K175" t="s">
+        <v>20</v>
+      </c>
+      <c r="L175">
+        <v>1.6499176025390621</v>
+      </c>
+      <c r="M175" t="s">
+        <v>20</v>
+      </c>
+      <c r="N175">
+        <v>1.6499176025390621</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176">
+        <v>2049280</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>3</v>
+      </c>
+      <c r="E176">
+        <v>84</v>
+      </c>
+      <c r="F176" t="s">
+        <v>15</v>
+      </c>
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176">
+        <v>6.7757692736174066E-3</v>
+      </c>
+      <c r="I176">
+        <v>5.5088070301195877E-2</v>
+      </c>
+      <c r="J176">
+        <v>0.25942764717339861</v>
+      </c>
+      <c r="K176">
+        <v>3.8152415752410889</v>
+      </c>
+      <c r="L176">
+        <v>2.3063325881958008</v>
+      </c>
+      <c r="M176">
+        <v>2.640628814697266E-2</v>
+      </c>
+      <c r="N176">
+        <v>6.1479804515838623</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177">
+        <v>2049280</v>
+      </c>
+      <c r="C177">
+        <v>3</v>
+      </c>
+      <c r="D177">
+        <v>3</v>
+      </c>
+      <c r="E177">
+        <v>84</v>
+      </c>
+      <c r="F177" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177">
+        <v>6.7948118458851219E-3</v>
+      </c>
+      <c r="I177">
+        <v>5.5209126130891961E-2</v>
+      </c>
+      <c r="J177">
+        <v>0.26236241047210501</v>
+      </c>
+      <c r="K177">
+        <v>3.8152415752410889</v>
+      </c>
+      <c r="L177">
+        <v>2.3063325881958008</v>
+      </c>
+      <c r="M177">
+        <v>2.640628814697266E-2</v>
+      </c>
+      <c r="N177">
+        <v>6.1479804515838623</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178">
+        <v>2049280</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>3</v>
+      </c>
+      <c r="E178">
+        <v>84</v>
+      </c>
+      <c r="F178" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178">
+        <v>6.2367259510999151E-5</v>
+      </c>
+      <c r="I178">
+        <v>5.5816649548153423E-3</v>
+      </c>
+      <c r="J178">
+        <v>0.99318343552587507</v>
+      </c>
+      <c r="K178">
+        <v>4.188417911529541</v>
+      </c>
+      <c r="L178">
+        <v>6.0947227478027344</v>
+      </c>
+      <c r="M178">
+        <v>9.9992752075195313E-4</v>
+      </c>
+      <c r="N178">
+        <v>10.284140586853029</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179">
+        <v>2049280</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179">
+        <v>3</v>
+      </c>
+      <c r="E179">
+        <v>84</v>
+      </c>
+      <c r="F179" t="s">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179">
+        <v>6.2327258583522421E-5</v>
+      </c>
+      <c r="I179">
+        <v>5.5730528831298134E-3</v>
+      </c>
+      <c r="J179">
+        <v>0.99323381870959782</v>
+      </c>
+      <c r="K179">
+        <v>4.188417911529541</v>
+      </c>
+      <c r="L179">
+        <v>6.0947227478027344</v>
+      </c>
+      <c r="M179">
+        <v>9.9992752075195313E-4</v>
+      </c>
+      <c r="N179">
+        <v>10.284140586853029</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180">
+        <v>2049280</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+      <c r="E180">
+        <v>84</v>
+      </c>
+      <c r="F180" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180">
+        <v>9.7867348183374449E-6</v>
+      </c>
+      <c r="I180">
+        <v>1.9307612993164931E-3</v>
+      </c>
+      <c r="J180">
+        <v>0.99893033765787653</v>
+      </c>
+      <c r="K180" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180">
+        <v>8.7709956169128418</v>
+      </c>
+      <c r="M180" t="s">
+        <v>20</v>
+      </c>
+      <c r="N180">
+        <v>8.7709956169128418</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181">
+        <v>2049280</v>
+      </c>
+      <c r="C181">
+        <v>3</v>
+      </c>
+      <c r="D181">
+        <v>3</v>
+      </c>
+      <c r="E181">
+        <v>84</v>
+      </c>
+      <c r="F181" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181">
+        <v>9.6544633073642119E-6</v>
+      </c>
+      <c r="I181">
+        <v>1.9271551971881469E-3</v>
+      </c>
+      <c r="J181">
+        <v>0.99895192167145253</v>
+      </c>
+      <c r="K181" t="s">
+        <v>20</v>
+      </c>
+      <c r="L181">
+        <v>8.7709956169128418</v>
+      </c>
+      <c r="M181" t="s">
+        <v>20</v>
+      </c>
+      <c r="N181">
+        <v>8.7709956169128418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182">
+        <v>2049280</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182">
+        <v>4</v>
+      </c>
+      <c r="E182">
+        <v>210</v>
+      </c>
+      <c r="F182" t="s">
+        <v>15</v>
+      </c>
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182">
+        <v>7.3229070711705114E-3</v>
+      </c>
+      <c r="I182">
+        <v>5.2575244413527247E-2</v>
+      </c>
+      <c r="J182">
+        <v>0.19962703860900111</v>
+      </c>
+      <c r="K182">
+        <v>7.8768925666809082</v>
+      </c>
+      <c r="L182">
+        <v>20.475179195404049</v>
+      </c>
+      <c r="M182">
+        <v>6.4859390258789063E-2</v>
+      </c>
+      <c r="N182">
+        <v>28.41693115234375</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183">
+        <v>2049280</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183">
+        <v>210</v>
+      </c>
+      <c r="F183" t="s">
+        <v>15</v>
+      </c>
+      <c r="G183" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183">
+        <v>7.3528153794047953E-3</v>
+      </c>
+      <c r="I183">
+        <v>5.2661041673063853E-2</v>
+      </c>
+      <c r="J183">
+        <v>0.2017861368755427</v>
+      </c>
+      <c r="K183">
+        <v>7.8768925666809082</v>
+      </c>
+      <c r="L183">
+        <v>20.475179195404049</v>
+      </c>
+      <c r="M183">
+        <v>6.4859390258789063E-2</v>
+      </c>
+      <c r="N183">
+        <v>28.41693115234375</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184">
+        <v>2049280</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>4</v>
+      </c>
+      <c r="E184">
+        <v>210</v>
+      </c>
+      <c r="F184" t="s">
+        <v>18</v>
+      </c>
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184">
+        <v>1.050240561574606E-4</v>
+      </c>
+      <c r="I184">
+        <v>7.0079906124654321E-3</v>
+      </c>
+      <c r="J184">
+        <v>0.98852116870703299</v>
+      </c>
+      <c r="K184">
+        <v>10.232853174209589</v>
+      </c>
+      <c r="L184">
+        <v>10.365872383117679</v>
+      </c>
+      <c r="M184">
+        <v>2.1979808807373051E-3</v>
+      </c>
+      <c r="N184">
+        <v>20.600923538208011</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185">
+        <v>2049280</v>
+      </c>
+      <c r="C185">
+        <v>3</v>
+      </c>
+      <c r="D185">
+        <v>4</v>
+      </c>
+      <c r="E185">
+        <v>210</v>
+      </c>
+      <c r="F185" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185">
+        <v>1.050920652690133E-4</v>
+      </c>
+      <c r="I185">
+        <v>7.0132349754473394E-3</v>
+      </c>
+      <c r="J185">
+        <v>0.98859131651298215</v>
+      </c>
+      <c r="K185">
+        <v>10.232853174209589</v>
+      </c>
+      <c r="L185">
+        <v>10.365872383117679</v>
+      </c>
+      <c r="M185">
+        <v>2.1979808807373051E-3</v>
+      </c>
+      <c r="N185">
+        <v>20.600923538208011</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186">
+        <v>2049280</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186">
+        <v>4</v>
+      </c>
+      <c r="E186">
+        <v>210</v>
+      </c>
+      <c r="F186" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186">
+        <v>9.5152743216411011E-6</v>
+      </c>
+      <c r="I186">
+        <v>1.890067190623161E-3</v>
+      </c>
+      <c r="J186">
+        <v>0.99896000751979475</v>
+      </c>
+      <c r="K186" t="s">
+        <v>20</v>
+      </c>
+      <c r="L186">
+        <v>29.798313617706299</v>
+      </c>
+      <c r="M186" t="s">
+        <v>20</v>
+      </c>
+      <c r="N186">
+        <v>29.798313617706299</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187">
+        <v>2049280</v>
+      </c>
+      <c r="C187">
+        <v>3</v>
+      </c>
+      <c r="D187">
+        <v>4</v>
+      </c>
+      <c r="E187">
+        <v>210</v>
+      </c>
+      <c r="F187" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187">
         <v>9.407088984908868E-6</v>
       </c>
-      <c r="I139">
+      <c r="I187">
         <v>1.8867728941727791E-3</v>
       </c>
-      <c r="J139">
+      <c r="J187">
         <v>0.99897877636633825</v>
       </c>
-      <c r="K139" t="s">
-        <v>20</v>
-      </c>
-      <c r="L139">
+      <c r="K187" t="s">
+        <v>20</v>
+      </c>
+      <c r="L187">
         <v>29.798313617706299</v>
       </c>
-      <c r="M139" t="s">
-        <v>20</v>
-      </c>
-      <c r="N139">
+      <c r="M187" t="s">
+        <v>20</v>
+      </c>
+      <c r="N187">
         <v>29.798313617706299</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N187">
+    <sortCondition ref="A1:A187"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E7C1A8-8236-40FC-841E-01548ED7C802}">
-  <dimension ref="A1:N47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="A1 D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>20433</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>1.9258597682263911E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.1013286726978167</v>
-      </c>
-      <c r="J2">
-        <v>0.66873264255572562</v>
-      </c>
-      <c r="K2">
-        <v>0.21017313003540039</v>
-      </c>
-      <c r="L2">
-        <v>6.0347299575805664</v>
-      </c>
-      <c r="M2">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="N2">
-        <v>6.2459025382995614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>20433</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3">
-        <v>1.754258967325751E-2</v>
-      </c>
-      <c r="I3">
-        <v>9.4885733180826201E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.69824971580661344</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3">
-        <v>2.7901411056518551E-2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3">
-        <v>2.7901411056518551E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4">
-        <v>20433</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>165</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>1.7687392365524642E-2</v>
-      </c>
-      <c r="I4">
-        <v>9.5804452684389016E-2</v>
-      </c>
-      <c r="J4">
-        <v>0.69575896305246421</v>
-      </c>
-      <c r="K4">
-        <v>2.0127890110015869</v>
-      </c>
-      <c r="L4">
-        <v>8.0322599411010742</v>
-      </c>
-      <c r="M4">
-        <v>9.9968910217285156E-4</v>
-      </c>
-      <c r="N4">
-        <v>10.04604864120483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>20433</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>1.6120053568364809E-2</v>
-      </c>
-      <c r="I5">
-        <v>8.9149326740559268E-2</v>
-      </c>
-      <c r="J5">
-        <v>0.72271877550200669</v>
-      </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5">
-        <v>0.11878871917724609</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5">
-        <v>0.11878871917724609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>20433</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>495</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>1.7230989753116401E-2</v>
-      </c>
-      <c r="I6">
-        <v>9.3499276740254225E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.70360954957166766</v>
-      </c>
-      <c r="K6">
-        <v>17.70735335350037</v>
-      </c>
-      <c r="L6">
-        <v>26.357625722885128</v>
-      </c>
-      <c r="M6">
-        <v>2.9997825622558589E-3</v>
-      </c>
-      <c r="N6">
-        <v>44.067978858947747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>20433</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>495</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7">
-        <v>2.0563763242770872E-2</v>
-      </c>
-      <c r="I7">
-        <v>8.5800382161139041E-2</v>
-      </c>
-      <c r="J7">
-        <v>0.64628247492723867</v>
-      </c>
-      <c r="K7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>0.46906375885009771</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7">
-        <v>0.46906375885009771</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>768</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>5.2494218296731156E-3</v>
-      </c>
-      <c r="I8">
-        <v>5.3527841048463323E-2</v>
-      </c>
-      <c r="J8">
-        <v>0.93071768939928501</v>
-      </c>
-      <c r="K8">
-        <v>0.1838948726654053</v>
-      </c>
-      <c r="L8">
-        <v>6.2735850811004639</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>6.4574799537658691</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>768</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>4.6866966024518742E-4</v>
-      </c>
-      <c r="I9">
-        <v>1.6289408804056708E-2</v>
-      </c>
-      <c r="J9">
-        <v>0.9938144584253652</v>
-      </c>
-      <c r="K9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>7.5786113739013672E-3</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>7.5786113739013672E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>768</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>165</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10">
-        <v>4.8466349784843871E-3</v>
-      </c>
-      <c r="I10">
-        <v>5.6336697339465808E-2</v>
-      </c>
-      <c r="J10">
-        <v>0.93603370412155384</v>
-      </c>
-      <c r="K10">
-        <v>1.933793306350708</v>
-      </c>
-      <c r="L10">
-        <v>7.8521511554718018</v>
-      </c>
-      <c r="M10">
-        <v>9.9992752075195313E-4</v>
-      </c>
-      <c r="N10">
-        <v>9.7869443893432617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>768</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>165</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>2.1333737019882669E-4</v>
-      </c>
-      <c r="I11">
-        <v>1.1075586582482319E-2</v>
-      </c>
-      <c r="J11">
-        <v>0.99718435545390816</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11">
-        <v>2.8865814208984378E-2</v>
-      </c>
-      <c r="M11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11">
-        <v>2.8865814208984378E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>768</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>495</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12">
-        <v>5.0219811397582389E-3</v>
-      </c>
-      <c r="I12">
-        <v>5.8550542895895341E-2</v>
-      </c>
-      <c r="J12">
-        <v>0.93371947074458506</v>
-      </c>
-      <c r="K12">
-        <v>17.473239898681641</v>
-      </c>
-      <c r="L12">
-        <v>24.95187616348267</v>
-      </c>
-      <c r="M12">
-        <v>2.1572113037109379E-3</v>
-      </c>
-      <c r="N12">
-        <v>42.427273273468018</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>768</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13">
-        <v>495</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13">
-        <v>1.4933770576126509E-4</v>
-      </c>
-      <c r="I13">
-        <v>9.1745663520474974E-3</v>
-      </c>
-      <c r="J13">
-        <v>0.9980290284052874</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13">
-        <v>5.6621551513671882E-2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>5.6621551513671882E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>768</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>5.8277414671186276E-3</v>
-      </c>
-      <c r="I14">
-        <v>5.8069037748304478E-2</v>
-      </c>
-      <c r="J14">
-        <v>0.91328967166772212</v>
-      </c>
-      <c r="K14">
-        <v>0.1891636848449707</v>
-      </c>
-      <c r="L14">
-        <v>5.8691051006317139</v>
-      </c>
-      <c r="M14">
-        <v>1.0001659393310549E-3</v>
-      </c>
-      <c r="N14">
-        <v>6.0592689514160156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>768</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>45</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15">
-        <v>2.1608532211469908E-3</v>
-      </c>
-      <c r="I15">
-        <v>3.2072879715765792E-2</v>
-      </c>
-      <c r="J15">
-        <v>0.967848901098189</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15">
-        <v>8.1143379211425781E-3</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>8.1143379211425781E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>768</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>165</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <v>6.1457019922258214E-3</v>
-      </c>
-      <c r="I16">
-        <v>6.0430620206748747E-2</v>
-      </c>
-      <c r="J16">
-        <v>0.90855877176691024</v>
-      </c>
-      <c r="K16">
-        <v>1.955109119415283</v>
-      </c>
-      <c r="L16">
-        <v>10.868576049804689</v>
-      </c>
-      <c r="M16">
-        <v>1.0001659393310549E-3</v>
-      </c>
-      <c r="N16">
-        <v>12.8246853351593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>768</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>165</v>
-      </c>
-      <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17">
-        <v>2.0143539396447821E-3</v>
-      </c>
-      <c r="I17">
-        <v>3.2175147149207557E-2</v>
-      </c>
-      <c r="J17">
-        <v>0.97002864789567012</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17">
-        <v>2.9572963714599609E-2</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>2.9572963714599609E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>768</v>
-      </c>
-      <c r="C18">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>495</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18">
-        <v>7.2774733890220234E-3</v>
-      </c>
-      <c r="I18">
-        <v>6.9954274429039606E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.89171926885364872</v>
-      </c>
-      <c r="K18">
-        <v>17.359121561050419</v>
-      </c>
-      <c r="L18">
-        <v>26.074069976806641</v>
-      </c>
-      <c r="M18">
-        <v>2.0055770874023442E-3</v>
-      </c>
-      <c r="N18">
-        <v>43.435197114944458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>768</v>
-      </c>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>495</v>
-      </c>
-      <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19">
-        <v>1.555411831980352E-3</v>
-      </c>
-      <c r="I19">
-        <v>2.5553081726618031E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.97685719735443077</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>5.5958271026611328E-2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>5.5958271026611328E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>394</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>105</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20">
-        <v>1.607642153953736E-2</v>
-      </c>
-      <c r="I20">
-        <v>8.3437058774465236E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.61403517078335268</v>
-      </c>
-      <c r="K20">
-        <v>0.82579898834228516</v>
-      </c>
-      <c r="L20">
-        <v>7.2177627086639404</v>
-      </c>
-      <c r="M20">
-        <v>1.0015964508056641E-3</v>
-      </c>
-      <c r="N20">
-        <v>8.0445632934570313</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21">
-        <v>394</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>105</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21">
-        <v>9.6241608572788604E-3</v>
-      </c>
-      <c r="I21">
-        <v>5.4900526410101208E-2</v>
-      </c>
-      <c r="J21">
-        <v>0.76894188843594646</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>2.3633241653442379E-2</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>2.3633241653442379E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>394</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>560</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>1.8151207882010859E-2</v>
-      </c>
-      <c r="I22">
-        <v>8.6165626540149365E-2</v>
-      </c>
-      <c r="J22">
-        <v>0.56422342913646994</v>
-      </c>
-      <c r="K22">
-        <v>22.27582311630249</v>
-      </c>
-      <c r="L22">
-        <v>32.046923398971558</v>
-      </c>
-      <c r="M22">
-        <v>2.99835205078125E-3</v>
-      </c>
-      <c r="N22">
-        <v>54.325744867324829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>394</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>560</v>
-      </c>
-      <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23">
-        <v>1.535875197531356</v>
-      </c>
-      <c r="I23">
-        <v>0.60353626133165039</v>
-      </c>
-      <c r="J23">
-        <v>-35.873492453242378</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>5.6204557418823242E-2</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>5.6204557418823242E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>392</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>36</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24">
-        <v>6.3256935996206763E-3</v>
-      </c>
-      <c r="I24">
-        <v>6.1267527127696793E-2</v>
-      </c>
-      <c r="J24">
-        <v>0.82478623840617171</v>
-      </c>
-      <c r="K24">
-        <v>0.16281628608703611</v>
-      </c>
-      <c r="L24">
-        <v>5.9143364429473877</v>
-      </c>
-      <c r="M24">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="N24">
-        <v>6.0781521797180176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>392</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25">
-        <v>5.0622160494611882E-3</v>
-      </c>
-      <c r="I25">
-        <v>5.2445378522214911E-2</v>
-      </c>
-      <c r="J25">
-        <v>0.85978297841047313</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>4.4331550598144531E-3</v>
-      </c>
-      <c r="M25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>4.4331550598144531E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>392</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>120</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26">
-        <v>4.8585072891085233E-3</v>
-      </c>
-      <c r="I26">
-        <v>5.4246236781420668E-2</v>
-      </c>
-      <c r="J26">
-        <v>0.8654254550193855</v>
-      </c>
-      <c r="K26">
-        <v>1.0366218090057371</v>
-      </c>
-      <c r="L26">
-        <v>8.0872843265533447</v>
-      </c>
-      <c r="M26">
-        <v>9.9968910217285156E-4</v>
-      </c>
-      <c r="N26">
-        <v>9.1249058246612549</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <v>392</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>120</v>
-      </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27">
-        <v>1.235318344359315E-2</v>
-      </c>
-      <c r="I27">
-        <v>7.9807648916876292E-2</v>
-      </c>
-      <c r="J27">
-        <v>0.65783234601493346</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>2.519130706787109E-2</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>2.519130706787109E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28">
-        <v>392</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28">
-        <v>330</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28">
-        <v>8.776456679395998E-3</v>
-      </c>
-      <c r="I28">
-        <v>7.0993935749797787E-2</v>
-      </c>
-      <c r="J28">
-        <v>0.75690318159664494</v>
-      </c>
-      <c r="K28">
-        <v>7.7229697704315194</v>
-      </c>
-      <c r="L28">
-        <v>10.932705402374269</v>
-      </c>
-      <c r="M28">
-        <v>9.975433349609375E-4</v>
-      </c>
-      <c r="N28">
-        <v>18.656672716140751</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>392</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>330</v>
-      </c>
-      <c r="F29" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H29">
-        <v>21.762508090949261</v>
-      </c>
-      <c r="I29">
-        <v>1.6974250483231059</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <v>2.9190301895141602E-2</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>2.9190301895141602E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>21613</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>171</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30">
-        <v>3.793595700408344E-3</v>
-      </c>
-      <c r="I30">
-        <v>4.2395528594818079E-2</v>
-      </c>
-      <c r="J30">
-        <v>-0.45896826122470608</v>
-      </c>
-      <c r="K30">
-        <v>2.2782492637634282</v>
-      </c>
-      <c r="L30">
-        <v>7.2656514644622803</v>
-      </c>
-      <c r="M30">
-        <v>9.9873542785644531E-4</v>
-      </c>
-      <c r="N30">
-        <v>9.5448994636535645</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31">
-        <v>21613</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>171</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31">
-        <v>5.6854688457518997E-4</v>
-      </c>
-      <c r="I31">
-        <v>1.408218517294816E-2</v>
-      </c>
-      <c r="J31">
-        <v>0.7813441586503006</v>
-      </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31">
-        <v>0.1387135982513428</v>
-      </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31">
-        <v>0.1387135982513428</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32">
-        <v>171223</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>120</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>9.705566697161046E-6</v>
-      </c>
-      <c r="I32">
-        <v>1.040723311551508E-3</v>
-      </c>
-      <c r="J32">
-        <v>0.98233600046295111</v>
-      </c>
-      <c r="K32">
-        <v>1.573449850082397</v>
-      </c>
-      <c r="L32">
-        <v>7.7595410346984863</v>
-      </c>
-      <c r="M32">
-        <v>1.000642776489258E-3</v>
-      </c>
-      <c r="N32">
-        <v>9.333991527557373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33">
-        <v>171223</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33">
-        <v>120</v>
-      </c>
-      <c r="F33" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" t="s">
-        <v>17</v>
-      </c>
-      <c r="H33">
-        <v>4.4369558377059217E-12</v>
-      </c>
-      <c r="I33">
-        <v>4.518219797224225E-7</v>
-      </c>
-      <c r="J33">
-        <v>0.9999999919248006</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>1.3463799953460689</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>1.3463799953460689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34">
-        <v>171223</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <v>680</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34">
-        <v>4.4519956129344608E-5</v>
-      </c>
-      <c r="I34">
-        <v>2.058081918501604E-3</v>
-      </c>
-      <c r="J34">
-        <v>0.91897428465581399</v>
-      </c>
-      <c r="K34">
-        <v>38.466057538986213</v>
-      </c>
-      <c r="L34">
-        <v>26.940387010574341</v>
-      </c>
-      <c r="M34">
-        <v>3.9985179901123047E-3</v>
-      </c>
-      <c r="N34">
-        <v>65.410443067550659</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35">
-        <v>171223</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>680</v>
-      </c>
-      <c r="F35" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35">
-        <v>1.6882783526677969E-11</v>
-      </c>
-      <c r="I35">
-        <v>5.4270081354172447E-7</v>
-      </c>
-      <c r="J35">
-        <v>0.99999996927356338</v>
-      </c>
-      <c r="K35" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35">
-        <v>5.6024143695831299</v>
-      </c>
-      <c r="M35" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>5.6024143695831299</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36">
-        <v>96453</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>36</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>0.35239582587368079</v>
-      </c>
-      <c r="I36">
-        <v>0.50030462591637215</v>
-      </c>
-      <c r="J36">
-        <v>-12.697567625876241</v>
-      </c>
-      <c r="K36">
-        <v>0.29935717582702642</v>
-      </c>
-      <c r="L36">
-        <v>5.7788798809051514</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>6.0782370567321777</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37">
-        <v>96453</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>36</v>
-      </c>
-      <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37">
-        <v>8.8347590594949369E-5</v>
-      </c>
-      <c r="I37">
-        <v>6.9316078551492927E-3</v>
-      </c>
-      <c r="J37">
-        <v>0.99656594372604368</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>6.8910837173461914E-2</v>
-      </c>
-      <c r="M37" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>6.8910837173461914E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38">
-        <v>96453</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-      <c r="D38">
-        <v>3</v>
-      </c>
-      <c r="E38">
-        <v>120</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38">
-        <v>0.32228139657812571</v>
-      </c>
-      <c r="I38">
-        <v>0.42700342360236682</v>
-      </c>
-      <c r="J38">
-        <v>-11.527024726374369</v>
-      </c>
-      <c r="K38">
-        <v>1.1994044780731199</v>
-      </c>
-      <c r="L38">
-        <v>6.0242640972137451</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>7.2236685752868652</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39">
-        <v>96453</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>3</v>
-      </c>
-      <c r="E39">
-        <v>120</v>
-      </c>
-      <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>17</v>
-      </c>
-      <c r="H39">
-        <v>6.0716072534391023E-5</v>
-      </c>
-      <c r="I39">
-        <v>5.7888972795875687E-3</v>
-      </c>
-      <c r="J39">
-        <v>0.99763997627538425</v>
-      </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39">
-        <v>0.61720609664916992</v>
-      </c>
-      <c r="M39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39">
-        <v>0.61720609664916992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40">
-        <v>96453</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
-        <v>330</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40">
-        <v>12.719350642397041</v>
-      </c>
-      <c r="I40">
-        <v>3.2291631797717848</v>
-      </c>
-      <c r="J40">
-        <v>-493.39906148013762</v>
-      </c>
-      <c r="K40">
-        <v>7.8422966003417969</v>
-      </c>
-      <c r="L40">
-        <v>7.4524633884429932</v>
-      </c>
-      <c r="M40">
-        <v>2.2380352020263672E-3</v>
-      </c>
-      <c r="N40">
-        <v>15.29699802398682</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41">
-        <v>96453</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
-        <v>330</v>
-      </c>
-      <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41">
-        <v>4.5607553873112751E-5</v>
-      </c>
-      <c r="I41">
-        <v>4.8237861838713132E-3</v>
-      </c>
-      <c r="J41">
-        <v>0.99822724190367773</v>
-      </c>
-      <c r="K41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41">
-        <v>1.015649080276489</v>
-      </c>
-      <c r="M41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>1.015649080276489</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42">
-        <v>2049280</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>28</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42">
-        <v>2.6113821557500719E-5</v>
-      </c>
-      <c r="I42">
-        <v>3.2404799325033528E-3</v>
-      </c>
-      <c r="J42">
-        <v>0.99716511114304041</v>
-      </c>
-      <c r="K42">
-        <v>2.582660436630249</v>
-      </c>
-      <c r="L42">
-        <v>5.797703742980957</v>
-      </c>
-      <c r="M42">
-        <v>1.0027885437011721E-3</v>
-      </c>
-      <c r="N42">
-        <v>8.3813669681549072</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43">
-        <v>2049280</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>28</v>
-      </c>
-      <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43">
-        <v>1.079919753141735E-5</v>
-      </c>
-      <c r="I43">
-        <v>1.986906263208796E-3</v>
-      </c>
-      <c r="J43">
-        <v>0.99882765053446854</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43">
-        <v>1.6499176025390621</v>
-      </c>
-      <c r="M43" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1.6499176025390621</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44">
-        <v>2049280</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>84</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44">
-        <v>6.2327258583522421E-5</v>
-      </c>
-      <c r="I44">
-        <v>5.5730528831298134E-3</v>
-      </c>
-      <c r="J44">
-        <v>0.99323381870959782</v>
-      </c>
-      <c r="K44">
-        <v>4.188417911529541</v>
-      </c>
-      <c r="L44">
-        <v>6.0947227478027344</v>
-      </c>
-      <c r="M44">
-        <v>9.9992752075195313E-4</v>
-      </c>
-      <c r="N44">
-        <v>10.284140586853029</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45">
-        <v>2049280</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <v>84</v>
-      </c>
-      <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45">
-        <v>9.6544633073642119E-6</v>
-      </c>
-      <c r="I45">
-        <v>1.9271551971881469E-3</v>
-      </c>
-      <c r="J45">
-        <v>0.99895192167145253</v>
-      </c>
-      <c r="K45" t="s">
-        <v>20</v>
-      </c>
-      <c r="L45">
-        <v>8.7709956169128418</v>
-      </c>
-      <c r="M45" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>8.7709956169128418</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46">
-        <v>2049280</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <v>210</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <v>1.050920652690133E-4</v>
-      </c>
-      <c r="I46">
-        <v>7.0132349754473394E-3</v>
-      </c>
-      <c r="J46">
-        <v>0.98859131651298215</v>
-      </c>
-      <c r="K46">
-        <v>10.232853174209589</v>
-      </c>
-      <c r="L46">
-        <v>10.365872383117679</v>
-      </c>
-      <c r="M46">
-        <v>2.1979808807373051E-3</v>
-      </c>
-      <c r="N46">
-        <v>20.600923538208011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47">
-        <v>2049280</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-      <c r="E47">
-        <v>210</v>
-      </c>
-      <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <v>9.407088984908868E-6</v>
-      </c>
-      <c r="I47">
-        <v>1.8867728941727791E-3</v>
-      </c>
-      <c r="J47">
-        <v>0.99897877636633825</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47">
-        <v>29.798313617706299</v>
-      </c>
-      <c r="M47" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47">
-        <v>29.798313617706299</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N47">
-    <sortCondition ref="A1:A47"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>